--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento Tabula\GATEWAY\A1#111DEDALUS0000\DEDALUS\TABULA\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC83FF43-06FE-4ECE-8113-99457955A21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFECC7A-D0D0-4043-9F68-FEC5F8B3BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="327">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1036,6 +1036,373 @@
   <si>
     <t>Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o se annullare l'operazione per correggere il problema. Il sistema di CCE segnala l'errore affinchè l'utente possa correggere i dati errati/mancanti o, se impossibilitato a farlo per mancanza di autorizzazioni specifiche, segnalarlo al personale del CED affinchè intervenga direttamente. Il perimetro di azione dell'utente della CCE, ovvero la sua capacità di risoluzione di eventuali errori, dipende dalla configurazione dell'impianto e dalle policy concordate con il cliente e con i gestori dei SW dai quali vengono recuperati i dati (es. MPI, ADT, CUP, etc)</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-05-10T09:49:00Z</t>
+  </si>
+  <si>
+    <t>b911995c1cd9cbff</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ec4b97f4fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-05-10T09:51:00Z</t>
+  </si>
+  <si>
+    <t>6ee3728da746ec45</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b538593e0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2023-05-10T09:50:00Z</t>
+  </si>
+  <si>
+    <t>9c565a5a969b9895</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.16027e098c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2e09ba64aec5c460</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.baeea85461^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
+    </r>
+  </si>
+  <si>
+    <t>2023-05-10T10:02:00Z</t>
+  </si>
+  <si>
+    <t>0d7a1efe94c2a43f</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o annullare l'operazione per correggere il problema. La gestione dell'errore è a carico del sistema di pubblicazione, ovvero alla piattaforma ESB in uso. Trattandosi di errore non dipendente dall'operatore, la sua correzione sarà a carico del gestore del sistema pubblicante (fornitore e/o CED ospedaliero)</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_LDO_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+ </t>
+    </r>
+  </si>
+  <si>
+    <t>2023-05-10T10:03:00Z</t>
+  </si>
+  <si>
+    <t>4368232bd9c78aec</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o annullare l'operazione per correggere il problema. La gestione dell'errore è a carico del sistema di pubblicazione, ovvero alla piattaforma ESB in uso, che può gestire sia successivi retry automatici (code) o il reinvio manuale a carico di operatore tecnico autorizzato (CED/assistenza).</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT5_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:52:00Z</t>
+  </si>
+  <si>
+    <t>075165e64712020f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.974012f2b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:53:00Z</t>
+  </si>
+  <si>
+    <t>22505ae74f5ce44c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a9eee4e457^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT7_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:54:00Z</t>
+  </si>
+  <si>
+    <t>7416c77412bad0d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.14ebcba667^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>88e3d84934624ec7</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.12849206c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:55:00Z</t>
+  </si>
+  <si>
+    <t>7fe47b172aca6f1a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7122cc9cb2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:56:00Z</t>
+  </si>
+  <si>
+    <t>28461601c64e058d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ed6a8056c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>5392d2dd72262486</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.17e218e632^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:57:00Z</t>
+  </si>
+  <si>
+    <t>6029de4c16e584b5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9e77fdca76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>653a0030216503e0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c3b9be6c32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:58:00Z</t>
+  </si>
+  <si>
+    <t>c72bd42a64530c89</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e6ef19ffef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>df26cf3b90fd94d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.3d0794c45d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>2023-05-10T09:59:00Z</t>
+  </si>
+  <si>
+    <t>45157d443ba1df9c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.eeec662a2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
 </sst>
 </file>
 
@@ -1044,11 +1411,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1130,6 +1504,23 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1452,79 +1843,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1548,87 +1939,131 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4095,26 +4530,34 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:B5"/>
+      <selection pane="bottomRight" activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
-    <col min="5" max="5" width="63.7109375" customWidth="1"/>
-    <col min="6" max="9" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="15" width="36.42578125" customWidth="1"/>
-    <col min="16" max="16" width="34.28515625" customWidth="1"/>
-    <col min="17" max="17" width="33.140625" customWidth="1"/>
-    <col min="18" max="18" width="49.85546875" customWidth="1"/>
-    <col min="19" max="20" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C1" s="4"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -4132,15 +4575,15 @@
       <c r="S1" s="2"/>
       <c r="T1" s="15"/>
     </row>
-    <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="54"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4157,15 +4600,15 @@
       <c r="S2" s="2"/>
       <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="62"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4182,13 +4625,13 @@
       <c r="S3" s="2"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4206,13 +4649,13 @@
       <c r="S4" s="2"/>
       <c r="T4" s="15"/>
     </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="41"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4230,9 +4673,9 @@
       <c r="S5" s="2"/>
       <c r="T5" s="15"/>
     </row>
-    <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4250,7 +4693,7 @@
       <c r="S6" s="2"/>
       <c r="T6" s="15"/>
     </row>
-    <row r="7" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -4270,7 +4713,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -4287,7 +4730,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="s">
         <v>24</v>
       </c>
@@ -4349,8 +4792,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61">
+    <row r="10" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
         <v>32</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -4405,8 +4848,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61">
+    <row r="11" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
         <v>40</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -4461,8 +4904,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61">
+    <row r="12" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47">
         <v>48</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -4507,8 +4950,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
+    <row r="13" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47">
         <v>147</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -4545,8 +4988,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61">
+    <row r="14" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
         <v>148</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -4583,8 +5026,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61">
+    <row r="15" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47">
         <v>149</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -4621,8 +5064,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61">
+    <row r="16" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47">
         <v>150</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -4659,8 +5102,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61">
+    <row r="17" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47">
         <v>151</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -4678,13 +5121,13 @@
       <c r="F17" s="28">
         <v>45252</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="G17" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="H17" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="45" t="s">
         <v>191</v>
       </c>
       <c r="J17" s="29" t="s">
@@ -4715,8 +5158,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61">
+    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47">
         <v>152</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -4734,13 +5177,13 @@
       <c r="F18" s="28">
         <v>45252</v>
       </c>
-      <c r="G18" s="59" t="s">
+      <c r="G18" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="59" t="s">
+      <c r="H18" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="45" t="s">
         <v>196</v>
       </c>
       <c r="J18" s="29" t="s">
@@ -4771,8 +5214,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61">
+    <row r="19" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47">
         <v>153</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -4790,13 +5233,13 @@
       <c r="F19" s="28">
         <v>45252</v>
       </c>
-      <c r="G19" s="59" t="s">
+      <c r="G19" s="45" t="s">
         <v>199</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="59" t="s">
+      <c r="I19" s="45" t="s">
         <v>198</v>
       </c>
       <c r="J19" s="29" t="s">
@@ -4827,8 +5270,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61">
+    <row r="20" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="47">
         <v>154</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -4846,10 +5289,10 @@
       <c r="F20" s="28">
         <v>45252</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="45" t="s">
         <v>201</v>
       </c>
       <c r="I20" s="44" t="s">
@@ -4883,8 +5326,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61">
+    <row r="21" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="47">
         <v>155</v>
       </c>
       <c r="B21" s="26" t="s">
@@ -4902,13 +5345,13 @@
       <c r="F21" s="28">
         <v>45252</v>
       </c>
-      <c r="G21" s="59" t="s">
+      <c r="G21" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="59" t="s">
+      <c r="H21" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="45" t="s">
         <v>205</v>
       </c>
       <c r="J21" s="29" t="s">
@@ -4939,8 +5382,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61">
+    <row r="22" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="47">
         <v>156</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -4958,13 +5401,13 @@
       <c r="F22" s="28">
         <v>45252</v>
       </c>
-      <c r="G22" s="59" t="s">
+      <c r="G22" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="59" t="s">
+      <c r="H22" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="45" t="s">
         <v>208</v>
       </c>
       <c r="J22" s="29" t="s">
@@ -4995,8 +5438,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61">
+    <row r="23" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="47">
         <v>157</v>
       </c>
       <c r="B23" s="26" t="s">
@@ -5014,13 +5457,13 @@
       <c r="F23" s="28">
         <v>45252</v>
       </c>
-      <c r="G23" s="59" t="s">
+      <c r="G23" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="59" t="s">
+      <c r="H23" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="59" t="s">
+      <c r="I23" s="45" t="s">
         <v>211</v>
       </c>
       <c r="J23" s="29" t="s">
@@ -5051,8 +5494,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61">
+    <row r="24" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="47">
         <v>158</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -5070,13 +5513,13 @@
       <c r="F24" s="28">
         <v>45252</v>
       </c>
-      <c r="G24" s="59" t="s">
+      <c r="G24" s="45" t="s">
         <v>212</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="45" t="s">
         <v>214</v>
       </c>
       <c r="J24" s="29" t="s">
@@ -5107,8 +5550,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61">
+    <row r="25" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="47">
         <v>159</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -5126,10 +5569,10 @@
       <c r="F25" s="28">
         <v>45252</v>
       </c>
-      <c r="G25" s="59" t="s">
+      <c r="G25" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="H25" s="59" t="s">
+      <c r="H25" s="45" t="s">
         <v>215</v>
       </c>
       <c r="I25" s="44" t="s">
@@ -5163,8 +5606,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61">
+    <row r="26" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47">
         <v>160</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -5182,13 +5625,13 @@
       <c r="F26" s="28">
         <v>45252</v>
       </c>
-      <c r="G26" s="59" t="s">
+      <c r="G26" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="59" t="s">
+      <c r="H26" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="59" t="s">
+      <c r="I26" s="45" t="s">
         <v>220</v>
       </c>
       <c r="J26" s="29" t="s">
@@ -5219,8 +5662,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61">
+    <row r="27" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47">
         <v>161</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -5238,13 +5681,13 @@
       <c r="F27" s="28">
         <v>45252</v>
       </c>
-      <c r="G27" s="59" t="s">
+      <c r="G27" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="59" t="s">
+      <c r="H27" s="45" t="s">
         <v>222</v>
       </c>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="45" t="s">
         <v>223</v>
       </c>
       <c r="J27" s="29" t="s">
@@ -5275,8 +5718,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="156.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61">
+    <row r="28" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="47">
         <v>162</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -5294,13 +5737,13 @@
       <c r="F28" s="28">
         <v>45252</v>
       </c>
-      <c r="G28" s="59" t="s">
+      <c r="G28" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="59" t="s">
+      <c r="H28" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="I28" s="59" t="s">
+      <c r="I28" s="45" t="s">
         <v>226</v>
       </c>
       <c r="J28" s="29" t="s">
@@ -5331,8 +5774,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="173.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61">
+    <row r="29" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="47">
         <v>163</v>
       </c>
       <c r="B29" s="26" t="s">
@@ -5350,13 +5793,13 @@
       <c r="F29" s="28">
         <v>45252</v>
       </c>
-      <c r="G29" s="59" t="s">
+      <c r="G29" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="60" t="s">
+      <c r="H29" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="I29" s="46" t="s">
         <v>228</v>
       </c>
       <c r="J29" s="29" t="s">
@@ -5387,8 +5830,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61">
+    <row r="30" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="47">
         <v>164</v>
       </c>
       <c r="B30" s="26" t="s">
@@ -5425,8 +5868,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61">
+    <row r="31" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="47">
         <v>165</v>
       </c>
       <c r="B31" s="26" t="s">
@@ -5463,8 +5906,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61">
+    <row r="32" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="47">
         <v>166</v>
       </c>
       <c r="B32" s="26" t="s">
@@ -5501,8 +5944,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61">
+    <row r="33" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="47">
         <v>167</v>
       </c>
       <c r="B33" s="26" t="s">
@@ -5539,8 +5982,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="61">
+    <row r="34" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="47">
         <v>168</v>
       </c>
       <c r="B34" s="26" t="s">
@@ -5558,13 +6001,13 @@
       <c r="F34" s="28">
         <v>45252</v>
       </c>
-      <c r="G34" s="59" t="s">
+      <c r="G34" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="H34" s="59" t="s">
+      <c r="H34" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="I34" s="59" t="s">
+      <c r="I34" s="45" t="s">
         <v>231</v>
       </c>
       <c r="J34" s="29" t="s">
@@ -5595,8 +6038,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="61">
+    <row r="35" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="47">
         <v>169</v>
       </c>
       <c r="B35" s="26" t="s">
@@ -5614,13 +6057,13 @@
       <c r="F35" s="28">
         <v>45252</v>
       </c>
-      <c r="G35" s="59" t="s">
+      <c r="G35" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="59" t="s">
+      <c r="H35" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="I35" s="59" t="s">
+      <c r="I35" s="45" t="s">
         <v>234</v>
       </c>
       <c r="J35" s="29" t="s">
@@ -5651,8 +6094,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="240" x14ac:dyDescent="0.25">
-      <c r="A36" s="62">
+    <row r="36" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48">
         <v>374</v>
       </c>
       <c r="B36" s="35" t="s">
@@ -5697,1039 +6140,1749 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
+    <row r="37" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="63">
+        <v>6</v>
+      </c>
+      <c r="B37" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G37" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="H37" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="70"/>
       <c r="T37" s="13"/>
     </row>
-    <row r="38" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
+    <row r="38" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="63">
+        <v>7</v>
+      </c>
+      <c r="B38" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="65" t="s">
+        <v>247</v>
+      </c>
+      <c r="F38" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G38" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="H38" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="74"/>
       <c r="T38" s="13"/>
     </row>
-    <row r="39" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
+    <row r="39" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="63">
+        <v>8</v>
+      </c>
+      <c r="B39" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="F39" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G39" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="H39" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="I39" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="74"/>
       <c r="T39" s="13"/>
     </row>
-    <row r="40" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
+    <row r="40" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63">
+        <v>9</v>
+      </c>
+      <c r="B40" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="F40" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G40" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="H40" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="I40" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="74"/>
       <c r="T40" s="13"/>
     </row>
-    <row r="41" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
+    <row r="41" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="63">
+        <v>29</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="65" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G41" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="70"/>
       <c r="T41" s="13"/>
     </row>
-    <row r="42" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
+    <row r="42" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="63">
+        <v>37</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G42" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="I42" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>264</v>
+      </c>
+      <c r="K42" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="70"/>
       <c r="T42" s="13"/>
     </row>
-    <row r="43" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
+    <row r="43" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="63">
+        <v>45</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G43" s="73"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="K43" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O43" s="70"/>
       <c r="T43" s="13"/>
     </row>
-    <row r="44" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
+    <row r="44" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="63">
+        <v>63</v>
+      </c>
+      <c r="B44" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G44" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="I44" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K44" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O44" s="74"/>
       <c r="T44" s="13"/>
     </row>
-    <row r="45" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
+    <row r="45" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="63">
+        <v>64</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G45" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="H45" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="I45" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="J45" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K45" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="70"/>
       <c r="T45" s="13"/>
     </row>
-    <row r="46" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="63">
+        <v>65</v>
+      </c>
+      <c r="B46" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G46" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="I46" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K46" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="70"/>
       <c r="T46" s="13"/>
     </row>
-    <row r="47" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="63">
+        <v>66</v>
+      </c>
+      <c r="B47" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="F47" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G47" s="73" t="s">
+        <v>283</v>
+      </c>
+      <c r="H47" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="I47" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="J47" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K47" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="71"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="70"/>
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="63">
+        <v>67</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G48" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="I48" s="67" t="s">
+        <v>294</v>
+      </c>
+      <c r="J48" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K48" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L48" s="71"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O48" s="70"/>
       <c r="T48" s="13"/>
     </row>
-    <row r="49" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="63">
+        <v>68</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G49" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="I49" s="67" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K49" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="70"/>
       <c r="T49" s="13"/>
     </row>
-    <row r="50" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="63">
+        <v>69</v>
+      </c>
+      <c r="B50" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G50" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="J50" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K50" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O50" s="70"/>
       <c r="T50" s="13"/>
     </row>
-    <row r="51" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="63">
+        <v>70</v>
+      </c>
+      <c r="B51" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="E51" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="H51" s="67" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="67" t="s">
+        <v>308</v>
+      </c>
+      <c r="J51" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K51" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O51" s="70"/>
       <c r="T51" s="13"/>
     </row>
-    <row r="52" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="63">
+        <v>71</v>
+      </c>
+      <c r="B52" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="F52" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G52" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="H52" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="J52" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K52" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" s="68"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="70"/>
       <c r="T52" s="13"/>
     </row>
-    <row r="53" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="63">
+        <v>72</v>
+      </c>
+      <c r="B53" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F53" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G53" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="I53" s="67" t="s">
+        <v>317</v>
+      </c>
+      <c r="J53" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K53" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="68"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O53" s="70"/>
       <c r="T53" s="13"/>
     </row>
-    <row r="54" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="63">
+        <v>73</v>
+      </c>
+      <c r="B54" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G54" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="H54" s="67" t="s">
+        <v>320</v>
+      </c>
+      <c r="I54" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="J54" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K54" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" s="70"/>
       <c r="T54" s="13"/>
     </row>
-    <row r="55" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="375" x14ac:dyDescent="0.25">
+      <c r="A55" s="63">
+        <v>74</v>
+      </c>
+      <c r="B55" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>322</v>
+      </c>
+      <c r="E55" s="65" t="s">
+        <v>323</v>
+      </c>
+      <c r="F55" s="66">
+        <v>45056</v>
+      </c>
+      <c r="G55" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="I55" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="K55" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="68"/>
+      <c r="M55" s="71"/>
+      <c r="N55" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="70"/>
       <c r="T55" s="13"/>
     </row>
-    <row r="56" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T56" s="13"/>
     </row>
-    <row r="57" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T57" s="13"/>
     </row>
-    <row r="58" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T58" s="13"/>
     </row>
-    <row r="59" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T59" s="13"/>
     </row>
-    <row r="60" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T60" s="13"/>
     </row>
-    <row r="61" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T61" s="13"/>
     </row>
-    <row r="62" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T62" s="13"/>
     </row>
-    <row r="63" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T63" s="13"/>
     </row>
-    <row r="64" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T64" s="13"/>
     </row>
-    <row r="65" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T65" s="13"/>
     </row>
-    <row r="66" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T66" s="13"/>
     </row>
-    <row r="67" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T67" s="13"/>
     </row>
-    <row r="68" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T68" s="13"/>
     </row>
-    <row r="69" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T69" s="13"/>
     </row>
-    <row r="70" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T70" s="13"/>
     </row>
-    <row r="71" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T71" s="13"/>
     </row>
-    <row r="72" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T72" s="13"/>
     </row>
-    <row r="73" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T73" s="13"/>
     </row>
-    <row r="74" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T74" s="13"/>
     </row>
-    <row r="75" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T75" s="13"/>
     </row>
-    <row r="76" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T76" s="13"/>
     </row>
-    <row r="77" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T77" s="13"/>
     </row>
-    <row r="78" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T78" s="13"/>
     </row>
-    <row r="79" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T79" s="13"/>
     </row>
-    <row r="80" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T80" s="13"/>
     </row>
-    <row r="81" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T81" s="13"/>
     </row>
-    <row r="82" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T86" s="13"/>
     </row>
-    <row r="87" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T87" s="13"/>
     </row>
-    <row r="88" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T88" s="13"/>
     </row>
-    <row r="89" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T89" s="13"/>
     </row>
-    <row r="90" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T90" s="13"/>
     </row>
-    <row r="91" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T91" s="13"/>
     </row>
-    <row r="92" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T92" s="13"/>
     </row>
-    <row r="93" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T93" s="13"/>
     </row>
-    <row r="94" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T95" s="13"/>
     </row>
-    <row r="96" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T96" s="13"/>
     </row>
-    <row r="97" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T97" s="13"/>
     </row>
-    <row r="98" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T98" s="13"/>
     </row>
-    <row r="99" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T99" s="13"/>
     </row>
-    <row r="100" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T100" s="13"/>
     </row>
-    <row r="101" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T101" s="13"/>
     </row>
-    <row r="102" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T102" s="13"/>
     </row>
-    <row r="103" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T103" s="13"/>
     </row>
-    <row r="104" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T104" s="13"/>
     </row>
-    <row r="105" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T105" s="13"/>
     </row>
-    <row r="106" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T106" s="13"/>
     </row>
-    <row r="107" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T107" s="13"/>
     </row>
-    <row r="108" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T108" s="13"/>
     </row>
-    <row r="109" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T109" s="13"/>
     </row>
-    <row r="110" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T110" s="13"/>
     </row>
-    <row r="111" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T111" s="13"/>
     </row>
-    <row r="112" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T112" s="13"/>
     </row>
-    <row r="113" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T113" s="13"/>
     </row>
-    <row r="114" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T114" s="13"/>
     </row>
-    <row r="115" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T115" s="13"/>
     </row>
-    <row r="116" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T116" s="13"/>
     </row>
-    <row r="117" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T117" s="13"/>
     </row>
-    <row r="118" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T118" s="13"/>
     </row>
-    <row r="119" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T119" s="13"/>
     </row>
-    <row r="120" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T120" s="13"/>
     </row>
-    <row r="121" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T121" s="13"/>
     </row>
-    <row r="122" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T122" s="13"/>
     </row>
-    <row r="123" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T123" s="13"/>
     </row>
-    <row r="124" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T124" s="13"/>
     </row>
-    <row r="125" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T125" s="13"/>
     </row>
-    <row r="126" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T126" s="13"/>
     </row>
-    <row r="127" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T127" s="13"/>
     </row>
-    <row r="128" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T128" s="13"/>
     </row>
-    <row r="129" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T129" s="13"/>
     </row>
-    <row r="130" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T130" s="13"/>
     </row>
-    <row r="131" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T131" s="13"/>
     </row>
-    <row r="132" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T132" s="13"/>
     </row>
-    <row r="133" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T133" s="13"/>
     </row>
-    <row r="134" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T134" s="13"/>
     </row>
-    <row r="135" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T135" s="13"/>
     </row>
-    <row r="136" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T136" s="13"/>
     </row>
-    <row r="137" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T137" s="13"/>
     </row>
-    <row r="138" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T138" s="13"/>
     </row>
-    <row r="139" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T139" s="13"/>
     </row>
-    <row r="140" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T140" s="13"/>
     </row>
-    <row r="141" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T141" s="13"/>
     </row>
-    <row r="142" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T142" s="13"/>
     </row>
-    <row r="143" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T143" s="13"/>
     </row>
-    <row r="144" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T144" s="13"/>
     </row>
-    <row r="145" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T145" s="13"/>
     </row>
-    <row r="146" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T146" s="13"/>
     </row>
-    <row r="147" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T147" s="13"/>
     </row>
-    <row r="148" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T148" s="13"/>
     </row>
-    <row r="149" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T149" s="13"/>
     </row>
-    <row r="150" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T150" s="13"/>
     </row>
-    <row r="151" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T151" s="13"/>
     </row>
-    <row r="152" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T152" s="13"/>
     </row>
-    <row r="153" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T153" s="13"/>
     </row>
-    <row r="154" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T154" s="13"/>
     </row>
-    <row r="155" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T155" s="13"/>
     </row>
-    <row r="156" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T156" s="13"/>
     </row>
-    <row r="157" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T157" s="13"/>
     </row>
-    <row r="158" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T158" s="13"/>
     </row>
-    <row r="159" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T159" s="13"/>
     </row>
-    <row r="160" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T160" s="13"/>
     </row>
-    <row r="161" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T161" s="13"/>
     </row>
-    <row r="162" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T162" s="13"/>
     </row>
-    <row r="163" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T163" s="13"/>
     </row>
-    <row r="164" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T164" s="13"/>
     </row>
-    <row r="165" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T165" s="13"/>
     </row>
-    <row r="166" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T166" s="13"/>
     </row>
-    <row r="167" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T167" s="13"/>
     </row>
-    <row r="168" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T169" s="13"/>
     </row>
-    <row r="170" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T170" s="13"/>
     </row>
-    <row r="171" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T171" s="13"/>
     </row>
-    <row r="172" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T172" s="13"/>
     </row>
-    <row r="173" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T173" s="13"/>
     </row>
-    <row r="174" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T174" s="13"/>
     </row>
-    <row r="175" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T175" s="13"/>
     </row>
-    <row r="176" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T176" s="13"/>
     </row>
-    <row r="177" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T177" s="13"/>
     </row>
-    <row r="178" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T178" s="13"/>
     </row>
-    <row r="179" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T179" s="13"/>
     </row>
-    <row r="180" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T180" s="13"/>
     </row>
-    <row r="181" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T181" s="13"/>
     </row>
-    <row r="182" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T182" s="13"/>
     </row>
-    <row r="183" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T183" s="13"/>
     </row>
-    <row r="184" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T184" s="13"/>
     </row>
-    <row r="185" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T185" s="13"/>
     </row>
-    <row r="186" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T186" s="13"/>
     </row>
-    <row r="187" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T187" s="13"/>
     </row>
-    <row r="188" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T188" s="13"/>
     </row>
-    <row r="189" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T189" s="13"/>
     </row>
-    <row r="190" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T190" s="13"/>
     </row>
-    <row r="191" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T191" s="13"/>
     </row>
-    <row r="192" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T192" s="13"/>
     </row>
-    <row r="193" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T193" s="13"/>
     </row>
-    <row r="194" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T194" s="13"/>
     </row>
-    <row r="195" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T195" s="13"/>
     </row>
-    <row r="196" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T196" s="13"/>
     </row>
-    <row r="197" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T197" s="13"/>
     </row>
-    <row r="198" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T198" s="13"/>
     </row>
-    <row r="199" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T199" s="13"/>
     </row>
-    <row r="200" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T200" s="13"/>
     </row>
-    <row r="201" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T201" s="13"/>
     </row>
-    <row r="202" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T202" s="13"/>
     </row>
-    <row r="203" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T203" s="13"/>
     </row>
-    <row r="204" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T204" s="13"/>
     </row>
-    <row r="205" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T205" s="13"/>
     </row>
-    <row r="206" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T206" s="13"/>
     </row>
-    <row r="207" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T207" s="13"/>
     </row>
-    <row r="208" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T208" s="13"/>
     </row>
-    <row r="209" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T209" s="13"/>
     </row>
-    <row r="210" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T210" s="13"/>
     </row>
-    <row r="211" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T211" s="13"/>
     </row>
-    <row r="212" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T212" s="13"/>
     </row>
-    <row r="213" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T213" s="13"/>
     </row>
-    <row r="214" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T214" s="13"/>
     </row>
-    <row r="215" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T215" s="13"/>
     </row>
-    <row r="216" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T216" s="13"/>
     </row>
-    <row r="217" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T217" s="13"/>
     </row>
-    <row r="218" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T218" s="13"/>
     </row>
-    <row r="219" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T219" s="13"/>
     </row>
-    <row r="220" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T220" s="13"/>
     </row>
-    <row r="221" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T221" s="13"/>
     </row>
-    <row r="222" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T222" s="13"/>
     </row>
-    <row r="223" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T223" s="13"/>
     </row>
-    <row r="224" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T224" s="13"/>
     </row>
-    <row r="225" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T225" s="13"/>
     </row>
-    <row r="226" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T226" s="13"/>
     </row>
-    <row r="227" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T227" s="13"/>
     </row>
-    <row r="228" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T228" s="13"/>
     </row>
-    <row r="229" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T229" s="13"/>
     </row>
-    <row r="230" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T230" s="13"/>
     </row>
-    <row r="231" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T231" s="13"/>
     </row>
-    <row r="232" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T232" s="13"/>
     </row>
-    <row r="233" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T233" s="13"/>
     </row>
-    <row r="234" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T234" s="13"/>
     </row>
-    <row r="235" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T235" s="13"/>
     </row>
-    <row r="236" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T236" s="13"/>
     </row>
-    <row r="237" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T237" s="13"/>
     </row>
-    <row r="238" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T238" s="13"/>
     </row>
-    <row r="239" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T239" s="13"/>
     </row>
-    <row r="240" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T240" s="13"/>
     </row>
-    <row r="241" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T241" s="13"/>
     </row>
-    <row r="242" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T242" s="13"/>
     </row>
-    <row r="243" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T243" s="13"/>
     </row>
-    <row r="244" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T244" s="13"/>
     </row>
-    <row r="245" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T245" s="13"/>
     </row>
-    <row r="246" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T246" s="13"/>
     </row>
-    <row r="247" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T247" s="13"/>
     </row>
-    <row r="248" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T248" s="13"/>
     </row>
-    <row r="249" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T249" s="13"/>
     </row>
-    <row r="250" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T250" s="13"/>
     </row>
-    <row r="251" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T251" s="13"/>
     </row>
-    <row r="252" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T252" s="13"/>
     </row>
-    <row r="253" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T253" s="13"/>
     </row>
-    <row r="254" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T254" s="13"/>
     </row>
-    <row r="255" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T255" s="13"/>
     </row>
-    <row r="256" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T256" s="13"/>
     </row>
-    <row r="257" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T257" s="13"/>
     </row>
-    <row r="258" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T258" s="13"/>
     </row>
-    <row r="259" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T259" s="13"/>
     </row>
-    <row r="260" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T260" s="13"/>
     </row>
-    <row r="261" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T261" s="13"/>
     </row>
-    <row r="262" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T262" s="13"/>
     </row>
-    <row r="263" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T263" s="13"/>
     </row>
-    <row r="264" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T264" s="13"/>
     </row>
-    <row r="265" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T265" s="13"/>
     </row>
-    <row r="266" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T266" s="13"/>
     </row>
-    <row r="267" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T267" s="13"/>
     </row>
-    <row r="268" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T268" s="13"/>
     </row>
-    <row r="269" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T269" s="13"/>
     </row>
-    <row r="270" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T270" s="13"/>
     </row>
-    <row r="271" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T271" s="13"/>
     </row>
-    <row r="272" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T272" s="13"/>
     </row>
-    <row r="273" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T273" s="13"/>
     </row>
-    <row r="274" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T274" s="13"/>
     </row>
-    <row r="275" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T275" s="13"/>
     </row>
-    <row r="276" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T276" s="13"/>
     </row>
-    <row r="277" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T277" s="13"/>
     </row>
-    <row r="278" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T278" s="13"/>
     </row>
-    <row r="279" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T279" s="13"/>
     </row>
-    <row r="280" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T280" s="13"/>
     </row>
-    <row r="281" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T281" s="13"/>
     </row>
-    <row r="282" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T282" s="13"/>
     </row>
-    <row r="283" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T283" s="13"/>
     </row>
-    <row r="284" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T284" s="13"/>
     </row>
-    <row r="285" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T285" s="13"/>
     </row>
-    <row r="286" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T286" s="13"/>
     </row>
-    <row r="287" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T287" s="13"/>
     </row>
-    <row r="288" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T288" s="13"/>
     </row>
-    <row r="289" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T289" s="13"/>
     </row>
-    <row r="290" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T290" s="13"/>
     </row>
-    <row r="291" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T291" s="13"/>
     </row>
-    <row r="292" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T292" s="13"/>
     </row>
-    <row r="293" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T293" s="13"/>
     </row>
-    <row r="294" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T294" s="13"/>
     </row>
-    <row r="295" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T295" s="13"/>
     </row>
-    <row r="296" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T296" s="13"/>
     </row>
-    <row r="297" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T297" s="13"/>
     </row>
-    <row r="298" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T298" s="13"/>
     </row>
-    <row r="299" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T299" s="13"/>
     </row>
-    <row r="300" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T300" s="13"/>
     </row>
-    <row r="301" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T301" s="13"/>
     </row>
-    <row r="302" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T302" s="13"/>
     </row>
-    <row r="303" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T303" s="13"/>
     </row>
-    <row r="304" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T304" s="13"/>
     </row>
-    <row r="305" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T305" s="13"/>
     </row>
-    <row r="306" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T306" s="13"/>
     </row>
-    <row r="307" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T307" s="13"/>
     </row>
-    <row r="308" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T308" s="13"/>
     </row>
-    <row r="309" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T309" s="13"/>
     </row>
-    <row r="310" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T310" s="13"/>
     </row>
-    <row r="311" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T311" s="13"/>
     </row>
-    <row r="312" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T312" s="13"/>
     </row>
-    <row r="313" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T313" s="13"/>
     </row>
-    <row r="314" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T314" s="13"/>
     </row>
-    <row r="315" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T315" s="13"/>
     </row>
-    <row r="316" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T316" s="13"/>
     </row>
-    <row r="317" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T317" s="13"/>
     </row>
-    <row r="318" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T318" s="13"/>
     </row>
-    <row r="319" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T319" s="13"/>
     </row>
-    <row r="320" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T320" s="13"/>
     </row>
-    <row r="321" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T321" s="13"/>
     </row>
-    <row r="322" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T322" s="13"/>
     </row>
-    <row r="323" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T323" s="13"/>
     </row>
-    <row r="324" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T324" s="13"/>
     </row>
-    <row r="325" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T325" s="13"/>
     </row>
-    <row r="326" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T326" s="13"/>
     </row>
-    <row r="327" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T327" s="13"/>
     </row>
-    <row r="328" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T328" s="13"/>
     </row>
-    <row r="329" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T329" s="13"/>
     </row>
-    <row r="330" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T330" s="13"/>
     </row>
-    <row r="331" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T331" s="13"/>
     </row>
-    <row r="332" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T332" s="13"/>
     </row>
-    <row r="333" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T333" s="13"/>
     </row>
-    <row r="334" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T334" s="13"/>
     </row>
-    <row r="335" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T335" s="13"/>
     </row>
-    <row r="336" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T336" s="13"/>
     </row>
-    <row r="337" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T337" s="13"/>
     </row>
-    <row r="338" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T338" s="13"/>
     </row>
-    <row r="339" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T339" s="13"/>
     </row>
-    <row r="340" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T340" s="13"/>
     </row>
-    <row r="341" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T341" s="13"/>
     </row>
-    <row r="342" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T342" s="13"/>
     </row>
-    <row r="343" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T343" s="13"/>
     </row>
-    <row r="344" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T344" s="13"/>
     </row>
-    <row r="345" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T345" s="13"/>
     </row>
-    <row r="346" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T346" s="13"/>
     </row>
-    <row r="347" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T347" s="13"/>
     </row>
-    <row r="348" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T348" s="13"/>
     </row>
-    <row r="349" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T349" s="13"/>
     </row>
-    <row r="350" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T350" s="13"/>
     </row>
-    <row r="351" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T351" s="13"/>
     </row>
-    <row r="352" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T352" s="13"/>
     </row>
-    <row r="353" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T353" s="13"/>
     </row>
-    <row r="354" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T354" s="13"/>
     </row>
-    <row r="355" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T355" s="13"/>
     </row>
-    <row r="356" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T356" s="13"/>
     </row>
-    <row r="357" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T357" s="13"/>
     </row>
-    <row r="358" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T358" s="13"/>
     </row>
-    <row r="359" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T359" s="13"/>
     </row>
-    <row r="360" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T360" s="13"/>
     </row>
-    <row r="361" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T361" s="13"/>
     </row>
-    <row r="362" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T362" s="13"/>
     </row>
-    <row r="363" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T363" s="13"/>
     </row>
-    <row r="364" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T364" s="13"/>
     </row>
-    <row r="365" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T365" s="13"/>
     </row>
-    <row r="366" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T366" s="13"/>
     </row>
-    <row r="367" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T367" s="13"/>
     </row>
-    <row r="368" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T368" s="13"/>
     </row>
-    <row r="369" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T369" s="13"/>
     </row>
-    <row r="370" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T370" s="13"/>
     </row>
-    <row r="371" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T371" s="13"/>
     </row>
-    <row r="372" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T372" s="13"/>
     </row>
-    <row r="373" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T373" s="13"/>
     </row>
-    <row r="374" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T374" s="13"/>
     </row>
-    <row r="375" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T375" s="13"/>
     </row>
-    <row r="376" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T376" s="13"/>
     </row>
-    <row r="377" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T377" s="13"/>
     </row>
-    <row r="378" spans="20:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="20:20" x14ac:dyDescent="0.25">
       <c r="T378" s="13"/>
     </row>
   </sheetData>

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento Tabula\GATEWAY\A1#111DEDALUS0000\DEDALUS\TABULA\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFECC7A-D0D0-4043-9F68-FEC5F8B3BC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BEA06E-1EF1-44F7-9FB3-31A8AFDC6022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="329">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1402,6 +1402,12 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.eeec662a2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>"Campo token JWT non valido"</t>
+  </si>
+  <si>
+    <t>"ValidationError" + trace dell'errore restituito dal validatore con gli estremi del dato mancante/errato</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1728,114 +1734,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1843,7 +1752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1885,18 +1794,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1909,76 +1806,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,49 +1847,104 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -2360,7 +2243,7 @@
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4526,11 +4409,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="U55" sqref="U55"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4551,7 +4434,7 @@
     <col min="14" max="14" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" customWidth="1"/>
     <col min="18" max="18" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -4576,14 +4459,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="25"/>
+      <c r="C2" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="54"/>
+      <c r="D2" s="27"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4601,14 +4484,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="61" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="35"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4626,12 +4509,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61" t="s">
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4650,13 +4533,13 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="41"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4674,8 +4557,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4713,7 +4596,7 @@
       <c r="S7" s="2"/>
       <c r="T7" s="15"/>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -4730,2191 +4613,2376 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" ht="38.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:20" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="18" t="s">
+      <c r="M9" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="18" t="s">
+      <c r="N9" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+    <row r="10" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
         <v>32</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="41">
         <v>45252</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="I10" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29" t="s">
+      <c r="K10" s="42"/>
+      <c r="L10" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="Q10" s="29" t="s">
+      <c r="Q10" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="30"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="32" t="s">
+      <c r="R10" s="44"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+    <row r="11" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
         <v>40</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="41">
         <v>45252</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="I11" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="P11" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="Q11" s="29" t="s">
+      <c r="Q11" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="30"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="32" t="s">
+      <c r="R11" s="44"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+    <row r="12" spans="1:20" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
         <v>48</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="M12" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="O12" s="29" t="s">
+      <c r="O12" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="Q12" s="29" t="s">
+      <c r="Q12" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="30"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="32" t="s">
+      <c r="R12" s="44"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+    <row r="13" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <v>147</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="29" t="s">
+      <c r="K13" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="32" t="s">
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+    <row r="14" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
         <v>148</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="32" t="s">
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+    <row r="15" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
         <v>149</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="29" t="s">
+      <c r="K15" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="32" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
+    <row r="16" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
         <v>150</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="29" t="s">
+      <c r="K16" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="32" t="s">
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="42" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+    <row r="17" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
         <v>151</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="41">
         <v>45252</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="45" t="s">
+      <c r="I17" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29" t="s">
+      <c r="K17" s="42"/>
+      <c r="L17" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N17" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="O17" s="29" t="s">
+      <c r="O17" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="20" t="s">
+      <c r="P17" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="Q17" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R17" s="30"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="32" t="s">
+      <c r="R17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47">
+    <row r="18" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
         <v>152</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="41">
         <v>45252</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H18" s="47" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I18" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29" t="s">
+      <c r="K18" s="42"/>
+      <c r="L18" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="O18" s="29" t="s">
+      <c r="O18" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="20" t="s">
+      <c r="P18" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q18" s="29" t="s">
+      <c r="Q18" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="30"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="32" t="s">
+      <c r="R18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
+    <row r="19" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
         <v>153</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="41">
         <v>45252</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="45" t="s">
+      <c r="I19" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29" t="s">
+      <c r="K19" s="42"/>
+      <c r="L19" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="29" t="s">
+      <c r="M19" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="O19" s="29" t="s">
+      <c r="O19" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="20" t="s">
+      <c r="P19" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q19" s="29" t="s">
+      <c r="Q19" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R19" s="30"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="32" t="s">
+      <c r="R19" s="44"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+    <row r="20" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
         <v>154</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="41">
         <v>45252</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="45" t="s">
+      <c r="H20" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="29" t="s">
+      <c r="M20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="O20" s="29" t="s">
+      <c r="O20" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="20" t="s">
+      <c r="P20" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q20" s="29" t="s">
+      <c r="Q20" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="30"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="32" t="s">
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47">
+    <row r="21" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
         <v>155</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="41">
         <v>45252</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I21" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29" t="s">
+      <c r="K21" s="42"/>
+      <c r="L21" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="29" t="s">
+      <c r="M21" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="O21" s="29" t="s">
+      <c r="O21" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="20" t="s">
+      <c r="P21" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q21" s="29" t="s">
+      <c r="Q21" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R21" s="30"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="32" t="s">
+      <c r="R21" s="44"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47">
+    <row r="22" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
         <v>156</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="41">
         <v>45252</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="45" t="s">
+      <c r="I22" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29" t="s">
+      <c r="K22" s="42"/>
+      <c r="L22" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="N22" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="O22" s="29" t="s">
+      <c r="O22" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="20" t="s">
+      <c r="P22" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="32" t="s">
+      <c r="R22" s="44"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+    <row r="23" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
         <v>157</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="28">
+      <c r="F23" s="41">
         <v>45252</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="45" t="s">
+      <c r="I23" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="J23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29" t="s">
+      <c r="K23" s="42"/>
+      <c r="L23" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N23" s="29" t="s">
+      <c r="N23" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="29" t="s">
+      <c r="O23" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="20" t="s">
+      <c r="P23" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q23" s="29" t="s">
+      <c r="Q23" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R23" s="30"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="32" t="s">
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
+    <row r="24" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
         <v>158</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="41">
         <v>45252</v>
       </c>
-      <c r="G24" s="45" t="s">
+      <c r="G24" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="I24" s="45" t="s">
+      <c r="I24" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29" t="s">
+      <c r="K24" s="42"/>
+      <c r="L24" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="29" t="s">
+      <c r="N24" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="O24" s="29" t="s">
+      <c r="O24" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q24" s="29" t="s">
+      <c r="Q24" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R24" s="30"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="32" t="s">
+      <c r="R24" s="44"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47">
+    <row r="25" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
         <v>159</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="41">
         <v>45252</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="H25" s="45" t="s">
+      <c r="H25" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29" t="s">
+      <c r="K25" s="42"/>
+      <c r="L25" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="29" t="s">
+      <c r="M25" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="29" t="s">
+      <c r="N25" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="O25" s="29" t="s">
+      <c r="O25" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P25" s="20" t="s">
+      <c r="P25" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q25" s="29" t="s">
+      <c r="Q25" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R25" s="30"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="32" t="s">
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47">
+    <row r="26" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <v>160</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="41">
         <v>45252</v>
       </c>
-      <c r="G26" s="45" t="s">
+      <c r="G26" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="45" t="s">
+      <c r="I26" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29" t="s">
+      <c r="K26" s="42"/>
+      <c r="L26" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="29" t="s">
+      <c r="M26" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="O26" s="29" t="s">
+      <c r="O26" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="20" t="s">
+      <c r="P26" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q26" s="29" t="s">
+      <c r="Q26" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R26" s="30"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="32" t="s">
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47">
+    <row r="27" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
         <v>161</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="41">
         <v>45252</v>
       </c>
-      <c r="G27" s="45" t="s">
+      <c r="G27" s="47" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="45" t="s">
+      <c r="H27" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="I27" s="45" t="s">
+      <c r="I27" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29" t="s">
+      <c r="K27" s="42"/>
+      <c r="L27" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M27" s="29" t="s">
+      <c r="M27" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="29" t="s">
+      <c r="O27" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="20" t="s">
+      <c r="P27" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q27" s="29" t="s">
+      <c r="Q27" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R27" s="30"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="32" t="s">
+      <c r="R27" s="44"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47">
+    <row r="28" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
         <v>162</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="41">
         <v>45252</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="45" t="s">
+      <c r="H28" s="47" t="s">
         <v>225</v>
       </c>
-      <c r="I28" s="45" t="s">
+      <c r="I28" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29" t="s">
+      <c r="K28" s="42"/>
+      <c r="L28" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="M28" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="N28" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="O28" s="29" t="s">
+      <c r="O28" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="20" t="s">
+      <c r="P28" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q28" s="29" t="s">
+      <c r="Q28" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R28" s="30"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="32" t="s">
+      <c r="R28" s="44"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47">
+    <row r="29" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
         <v>163</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="41">
         <v>45252</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="I29" s="46" t="s">
+      <c r="I29" s="47" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29" t="s">
+      <c r="K29" s="42"/>
+      <c r="L29" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="29" t="s">
+      <c r="M29" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="29" t="s">
+      <c r="N29" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="20" t="s">
+      <c r="P29" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q29" s="29" t="s">
+      <c r="Q29" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R29" s="30"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="32" t="s">
+      <c r="R29" s="44"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+    <row r="30" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
         <v>164</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="29" t="s">
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="K30" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="32" t="s">
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47">
+    <row r="31" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
         <v>165</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="28"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="29" t="s">
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="32" t="s">
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47">
+    <row r="32" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
         <v>166</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E32" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="29" t="s">
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="32" t="s">
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47">
+    <row r="33" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
         <v>167</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="28"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="29" t="s">
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="K33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="32" t="s">
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47">
+    <row r="34" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
         <v>168</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="41">
         <v>45252</v>
       </c>
-      <c r="G34" s="45" t="s">
+      <c r="G34" s="47" t="s">
         <v>229</v>
       </c>
-      <c r="H34" s="45" t="s">
+      <c r="H34" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="I34" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29" t="s">
+      <c r="K34" s="42"/>
+      <c r="L34" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M34" s="29" t="s">
+      <c r="M34" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="O34" s="29" t="s">
+      <c r="O34" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P34" s="20" t="s">
+      <c r="P34" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q34" s="29" t="s">
+      <c r="Q34" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="32" t="s">
+      <c r="R34" s="44"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47">
+    <row r="35" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
         <v>169</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="41">
         <v>45252</v>
       </c>
-      <c r="G35" s="45" t="s">
+      <c r="G35" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="45" t="s">
+      <c r="H35" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="I35" s="45" t="s">
+      <c r="I35" s="47" t="s">
         <v>234</v>
       </c>
-      <c r="J35" s="29" t="s">
+      <c r="J35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29" t="s">
+      <c r="K35" s="42"/>
+      <c r="L35" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="M35" s="29" t="s">
+      <c r="M35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="N35" s="29" t="s">
+      <c r="N35" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="O35" s="29" t="s">
+      <c r="O35" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="P35" s="20" t="s">
+      <c r="P35" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="Q35" s="29" t="s">
+      <c r="Q35" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="32" t="s">
+      <c r="R35" s="44"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="48">
+    <row r="36" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A36" s="50">
         <v>374</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="52">
         <v>45252</v>
       </c>
-      <c r="G36" s="43" t="s">
+      <c r="G36" s="53" t="s">
         <v>193</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="53" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="53" t="s">
         <v>189</v>
       </c>
-      <c r="J36" s="25" t="s">
+      <c r="J36" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="29" t="s">
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="R36" s="38"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40" t="s">
+      <c r="R36" s="55"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="63">
+    <row r="37" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="57">
         <v>6</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="59">
         <v>45056</v>
       </c>
-      <c r="G37" s="73" t="s">
+      <c r="G37" s="60" t="s">
         <v>243</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="61" t="s">
         <v>244</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="61" t="s">
         <v>245</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68" t="s">
+      <c r="J37" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="70"/>
-      <c r="T37" s="13"/>
-    </row>
-    <row r="38" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="63">
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
+      <c r="Q37" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T37" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="57">
         <v>7</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="F38" s="66">
+      <c r="F38" s="59">
         <v>45056</v>
       </c>
-      <c r="G38" s="73" t="s">
+      <c r="G38" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="I38" s="72" t="s">
+      <c r="I38" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68" t="s">
+      <c r="J38" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="74"/>
-      <c r="T38" s="13"/>
-    </row>
-    <row r="39" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="63">
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="66"/>
+      <c r="Q38" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T38" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="57">
         <v>8</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="F39" s="66">
+      <c r="F39" s="59">
         <v>45056</v>
       </c>
-      <c r="G39" s="73" t="s">
+      <c r="G39" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="H39" s="67" t="s">
+      <c r="H39" s="59" t="s">
         <v>254</v>
       </c>
-      <c r="I39" s="67" t="s">
+      <c r="I39" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68" t="s">
+      <c r="J39" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="74"/>
-      <c r="T39" s="13"/>
-    </row>
-    <row r="40" spans="1:20" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="63">
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="66"/>
+      <c r="Q39" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T39" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A40" s="57">
         <v>9</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="F40" s="66">
+      <c r="F40" s="59">
         <v>45056</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="H40" s="72" t="s">
+      <c r="H40" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="I40" s="72" t="s">
+      <c r="I40" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68" t="s">
+      <c r="J40" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="74"/>
-      <c r="T40" s="13"/>
-    </row>
-    <row r="41" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="63">
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="66"/>
+      <c r="Q40" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T40" s="65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" s="38" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="57">
         <v>29</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="57" t="s">
         <v>260</v>
       </c>
-      <c r="E41" s="65" t="s">
+      <c r="E41" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="F41" s="66">
+      <c r="F41" s="59">
         <v>45056</v>
       </c>
-      <c r="G41" s="73" t="s">
+      <c r="G41" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="H41" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="I41" s="72" t="s">
+      <c r="I41" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="J41" s="71" t="s">
+      <c r="J41" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L41" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M41" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O41" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="K41" s="68" t="s">
+      <c r="Q41" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T41" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="57">
+        <v>37</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="59">
+        <v>45056</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="I42" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="69" t="s">
+      <c r="L42" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M42" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O41" s="70"/>
-      <c r="T41" s="13"/>
-    </row>
-    <row r="42" spans="1:20" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="63">
-        <v>37</v>
-      </c>
-      <c r="B42" s="64" t="s">
+      <c r="N42" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="O42" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q42" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T42" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="57">
+        <v>45</v>
+      </c>
+      <c r="B43" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C43" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="64" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" s="65" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="66">
+      <c r="D43" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="59">
         <v>45056</v>
       </c>
-      <c r="G42" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="I42" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="K42" s="68" t="s">
+      <c r="G43" s="60"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
+      <c r="J43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="69" t="s">
+      <c r="L43" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O42" s="70"/>
-      <c r="T42" s="13"/>
-    </row>
-    <row r="43" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="63">
-        <v>45</v>
-      </c>
-      <c r="B43" s="64" t="s">
+      <c r="N43" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="O43" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q43" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T43" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="57">
+        <v>63</v>
+      </c>
+      <c r="B44" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C44" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="E43" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="66">
+      <c r="D44" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="E44" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="59">
         <v>45056</v>
       </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="71" t="s">
-        <v>270</v>
-      </c>
-      <c r="K43" s="68" t="s">
+      <c r="G44" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="H44" s="67" t="s">
+        <v>274</v>
+      </c>
+      <c r="I44" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="J44" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="69" t="s">
+      <c r="L44" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O43" s="70"/>
-      <c r="T43" s="13"/>
-    </row>
-    <row r="44" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="63">
-        <v>63</v>
-      </c>
-      <c r="B44" s="64" t="s">
+      <c r="N44" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O44" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q44" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T44" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="57">
+        <v>64</v>
+      </c>
+      <c r="B45" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C45" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="E44" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="F44" s="66">
+      <c r="D45" s="57" t="s">
+        <v>276</v>
+      </c>
+      <c r="E45" s="58" t="s">
+        <v>277</v>
+      </c>
+      <c r="F45" s="59">
         <v>45056</v>
       </c>
-      <c r="G44" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="H44" s="77" t="s">
-        <v>274</v>
-      </c>
-      <c r="I44" s="72" t="s">
-        <v>275</v>
-      </c>
-      <c r="J44" s="71" t="s">
+      <c r="G45" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="J45" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L45" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M45" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O45" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="K44" s="68" t="s">
+      <c r="Q45" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T45" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="57">
+        <v>65</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="E46" s="58" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="59">
+        <v>45056</v>
+      </c>
+      <c r="G46" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="I46" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="J46" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="69" t="s">
+      <c r="L46" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M46" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O44" s="74"/>
-      <c r="T44" s="13"/>
-    </row>
-    <row r="45" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="63">
-        <v>64</v>
-      </c>
-      <c r="B45" s="64" t="s">
+      <c r="N46" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O46" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q46" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T46" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="57">
+        <v>66</v>
+      </c>
+      <c r="B47" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C47" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="64" t="s">
-        <v>276</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F45" s="66">
+      <c r="D47" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="58" t="s">
+        <v>287</v>
+      </c>
+      <c r="F47" s="59">
         <v>45056</v>
       </c>
-      <c r="G45" s="73" t="s">
-        <v>278</v>
-      </c>
-      <c r="H45" s="72" t="s">
-        <v>279</v>
-      </c>
-      <c r="I45" s="72" t="s">
-        <v>280</v>
-      </c>
-      <c r="J45" s="71" t="s">
+      <c r="G47" s="60" t="s">
+        <v>283</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="L47" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M47" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O47" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="K45" s="68" t="s">
+      <c r="Q47" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T47" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="57">
+        <v>67</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="E48" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" s="59">
+        <v>45056</v>
+      </c>
+      <c r="G48" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="H48" s="69" t="s">
+        <v>293</v>
+      </c>
+      <c r="I48" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="J48" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="69" t="s">
+      <c r="L48" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M48" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O45" s="70"/>
-      <c r="T45" s="13"/>
-    </row>
-    <row r="46" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="63">
-        <v>65</v>
-      </c>
-      <c r="B46" s="64" t="s">
+      <c r="N48" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O48" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q48" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T48" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="57">
+        <v>68</v>
+      </c>
+      <c r="B49" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C49" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="66">
+      <c r="D49" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>296</v>
+      </c>
+      <c r="F49" s="59">
         <v>45056</v>
       </c>
-      <c r="G46" s="73" t="s">
-        <v>283</v>
-      </c>
-      <c r="H46" s="72" t="s">
-        <v>284</v>
-      </c>
-      <c r="I46" s="72" t="s">
-        <v>285</v>
-      </c>
-      <c r="J46" s="71" t="s">
+      <c r="G49" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="H49" s="59" t="s">
+        <v>298</v>
+      </c>
+      <c r="I49" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="J49" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L49" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M49" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O49" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="K46" s="68" t="s">
+      <c r="Q49" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T49" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="57">
+        <v>69</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="F50" s="59">
+        <v>45056</v>
+      </c>
+      <c r="G50" s="59" t="s">
+        <v>297</v>
+      </c>
+      <c r="H50" s="59" t="s">
+        <v>302</v>
+      </c>
+      <c r="I50" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="J50" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="69" t="s">
+      <c r="L50" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M50" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O46" s="70"/>
-      <c r="T46" s="13"/>
-    </row>
-    <row r="47" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63">
-        <v>66</v>
-      </c>
-      <c r="B47" s="64" t="s">
+      <c r="N50" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O50" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P50" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q50" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T50" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="57">
+        <v>70</v>
+      </c>
+      <c r="B51" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C51" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="75" t="s">
-        <v>286</v>
-      </c>
-      <c r="E47" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" s="66">
+      <c r="D51" s="57" t="s">
+        <v>304</v>
+      </c>
+      <c r="E51" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="F51" s="59">
         <v>45056</v>
       </c>
-      <c r="G47" s="73" t="s">
-        <v>283</v>
-      </c>
-      <c r="H47" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="I47" s="72" t="s">
-        <v>289</v>
-      </c>
-      <c r="J47" s="71" t="s">
+      <c r="G51" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="H51" s="59" t="s">
+        <v>307</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>308</v>
+      </c>
+      <c r="J51" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M51" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N51" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O51" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="K47" s="71" t="s">
+      <c r="Q51" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T51" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="57">
+        <v>71</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="57" t="s">
+        <v>309</v>
+      </c>
+      <c r="E52" s="58" t="s">
+        <v>310</v>
+      </c>
+      <c r="F52" s="59">
+        <v>45056</v>
+      </c>
+      <c r="G52" s="59" t="s">
+        <v>306</v>
+      </c>
+      <c r="H52" s="59" t="s">
+        <v>311</v>
+      </c>
+      <c r="I52" s="59" t="s">
+        <v>312</v>
+      </c>
+      <c r="J52" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L47" s="71"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="69" t="s">
+      <c r="L52" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M52" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O47" s="70"/>
-      <c r="T47" s="13"/>
-    </row>
-    <row r="48" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="63">
-        <v>67</v>
-      </c>
-      <c r="B48" s="64" t="s">
+      <c r="N52" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O52" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q52" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T52" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="57">
+        <v>72</v>
+      </c>
+      <c r="B53" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C53" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="64" t="s">
-        <v>290</v>
-      </c>
-      <c r="E48" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="F48" s="66">
+      <c r="D53" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="E53" s="58" t="s">
+        <v>314</v>
+      </c>
+      <c r="F53" s="59">
         <v>45056</v>
       </c>
-      <c r="G48" s="72" t="s">
-        <v>292</v>
-      </c>
-      <c r="H48" s="76" t="s">
-        <v>293</v>
-      </c>
-      <c r="I48" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="J48" s="71" t="s">
+      <c r="G53" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="H53" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="I53" s="59" t="s">
+        <v>317</v>
+      </c>
+      <c r="J53" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M53" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N53" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O53" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="K48" s="68" t="s">
+      <c r="Q53" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T53" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="57">
+        <v>73</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" s="59">
+        <v>45056</v>
+      </c>
+      <c r="G54" s="59" t="s">
+        <v>315</v>
+      </c>
+      <c r="H54" s="59" t="s">
+        <v>320</v>
+      </c>
+      <c r="I54" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="J54" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="69" t="s">
+      <c r="L54" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M54" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="O48" s="70"/>
-      <c r="T48" s="13"/>
-    </row>
-    <row r="49" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="63">
-        <v>68</v>
-      </c>
-      <c r="B49" s="64" t="s">
+      <c r="N54" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O54" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q54" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T54" s="65" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="57">
+        <v>74</v>
+      </c>
+      <c r="B55" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C55" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" s="66">
+      <c r="D55" s="57" t="s">
+        <v>322</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="F55" s="59">
         <v>45056</v>
       </c>
-      <c r="G49" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="H49" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="I49" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="J49" s="71" t="s">
+      <c r="G55" s="59" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="59" t="s">
+        <v>325</v>
+      </c>
+      <c r="I55" s="59" t="s">
+        <v>326</v>
+      </c>
+      <c r="J55" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="L55" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="M55" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="63" t="s">
+        <v>328</v>
+      </c>
+      <c r="O55" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="K49" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O49" s="70"/>
-      <c r="T49" s="13"/>
-    </row>
-    <row r="50" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="63">
-        <v>69</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="E50" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50" s="66">
-        <v>45056</v>
-      </c>
-      <c r="G50" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="H50" s="67" t="s">
-        <v>302</v>
-      </c>
-      <c r="I50" s="67" t="s">
-        <v>303</v>
-      </c>
-      <c r="J50" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="K50" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O50" s="70"/>
-      <c r="T50" s="13"/>
-    </row>
-    <row r="51" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="63">
-        <v>70</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="64" t="s">
-        <v>304</v>
-      </c>
-      <c r="E51" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="F51" s="66">
-        <v>45056</v>
-      </c>
-      <c r="G51" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="H51" s="67" t="s">
-        <v>307</v>
-      </c>
-      <c r="I51" s="67" t="s">
-        <v>308</v>
-      </c>
-      <c r="J51" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="K51" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O51" s="70"/>
-      <c r="T51" s="13"/>
-    </row>
-    <row r="52" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="63">
-        <v>71</v>
-      </c>
-      <c r="B52" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="E52" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" s="66">
-        <v>45056</v>
-      </c>
-      <c r="G52" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="H52" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="I52" s="67" t="s">
-        <v>312</v>
-      </c>
-      <c r="J52" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="K52" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="68"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O52" s="70"/>
-      <c r="T52" s="13"/>
-    </row>
-    <row r="53" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="63">
-        <v>72</v>
-      </c>
-      <c r="B53" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53" s="65" t="s">
-        <v>314</v>
-      </c>
-      <c r="F53" s="66">
-        <v>45056</v>
-      </c>
-      <c r="G53" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="H53" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="I53" s="67" t="s">
-        <v>317</v>
-      </c>
-      <c r="J53" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="K53" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="L53" s="68"/>
-      <c r="M53" s="71"/>
-      <c r="N53" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O53" s="70"/>
-      <c r="T53" s="13"/>
-    </row>
-    <row r="54" spans="1:20" ht="375.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="63">
-        <v>73</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="64" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="F54" s="66">
-        <v>45056</v>
-      </c>
-      <c r="G54" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="H54" s="67" t="s">
-        <v>320</v>
-      </c>
-      <c r="I54" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="J54" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="K54" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O54" s="70"/>
-      <c r="T54" s="13"/>
-    </row>
-    <row r="55" spans="1:20" ht="375" x14ac:dyDescent="0.25">
-      <c r="A55" s="63">
-        <v>74</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="64" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" s="65" t="s">
-        <v>323</v>
-      </c>
-      <c r="F55" s="66">
-        <v>45056</v>
-      </c>
-      <c r="G55" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="H55" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="I55" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="J55" s="71" t="s">
-        <v>240</v>
-      </c>
-      <c r="K55" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" s="68"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="O55" s="70"/>
-      <c r="T55" s="13"/>
+      <c r="Q55" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="T55" s="65" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T56" s="13"/>
@@ -7886,7 +7954,7 @@
       <c r="T378" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T36" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A9:T55" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -7921,16 +7989,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>57</v>
       </c>
     </row>
@@ -7941,10 +8009,10 @@
       <c r="B2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7955,10 +8023,10 @@
       <c r="B3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="18" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7969,10 +8037,10 @@
       <c r="B4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -7983,10 +8051,10 @@
       <c r="B5" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -7997,10 +8065,10 @@
       <c r="B6" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8011,10 +8079,10 @@
       <c r="B7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -8025,10 +8093,10 @@
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8039,10 +8107,10 @@
       <c r="B9" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8053,10 +8121,10 @@
       <c r="B10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8067,10 +8135,10 @@
       <c r="B11" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="18">
         <v>192</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8081,10 +8149,10 @@
       <c r="B12" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="18">
         <v>208</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8095,10 +8163,10 @@
       <c r="B13" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="18">
         <v>224</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>81</v>
       </c>
     </row>
@@ -8109,10 +8177,10 @@
       <c r="B14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="18">
         <v>240</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="18" t="s">
         <v>82</v>
       </c>
     </row>
@@ -8123,10 +8191,10 @@
       <c r="B15" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="18">
         <v>256</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="19" t="s">
         <v>83</v>
       </c>
     </row>
@@ -8137,10 +8205,10 @@
       <c r="B16" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="18">
         <v>272</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -8151,10 +8219,10 @@
       <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="18">
         <v>288</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8165,10 +8233,10 @@
       <c r="B18" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="18">
         <v>304</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8179,10 +8247,10 @@
       <c r="B19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="18">
         <v>193</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="18" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8193,10 +8261,10 @@
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="18">
         <v>209</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="18" t="s">
         <v>89</v>
       </c>
     </row>
@@ -8207,10 +8275,10 @@
       <c r="B21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="18">
         <v>225</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>90</v>
       </c>
     </row>
@@ -8221,10 +8289,10 @@
       <c r="B22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="18">
         <v>241</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="18" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8235,10 +8303,10 @@
       <c r="B23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="18">
         <v>257</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="19" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8249,10 +8317,10 @@
       <c r="B24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="18">
         <v>273</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="19" t="s">
         <v>93</v>
       </c>
     </row>
@@ -8263,10 +8331,10 @@
       <c r="B25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="18">
         <v>289</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>94</v>
       </c>
     </row>
@@ -8277,10 +8345,10 @@
       <c r="B26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="18">
         <v>305</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="19" t="s">
         <v>95</v>
       </c>
     </row>
@@ -8291,10 +8359,10 @@
       <c r="B27" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="18">
         <v>194</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="18" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8305,10 +8373,10 @@
       <c r="B28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="18">
         <v>210</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -8319,10 +8387,10 @@
       <c r="B29" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="18">
         <v>226</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="20" t="s">
         <v>99</v>
       </c>
     </row>
@@ -8333,10 +8401,10 @@
       <c r="B30" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="18">
         <v>242</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8347,10 +8415,10 @@
       <c r="B31" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="18">
         <v>258</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8361,10 +8429,10 @@
       <c r="B32" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="18">
         <v>274</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="19" t="s">
         <v>102</v>
       </c>
     </row>
@@ -8375,10 +8443,10 @@
       <c r="B33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="18">
         <v>290</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="19" t="s">
         <v>103</v>
       </c>
     </row>
@@ -8389,10 +8457,10 @@
       <c r="B34" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="18">
         <v>306</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="19" t="s">
         <v>104</v>
       </c>
     </row>
@@ -8403,10 +8471,10 @@
       <c r="B35" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="18">
         <v>195</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="18">
         <v>204</v>
       </c>
     </row>
@@ -8417,10 +8485,10 @@
       <c r="B36" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="18">
         <v>211</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="18">
         <v>220</v>
       </c>
     </row>
@@ -8431,10 +8499,10 @@
       <c r="B37" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="18">
         <v>227</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="19">
         <v>236</v>
       </c>
     </row>
@@ -8445,10 +8513,10 @@
       <c r="B38" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="18">
         <v>243</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="18">
         <v>252</v>
       </c>
     </row>
@@ -8459,10 +8527,10 @@
       <c r="B39" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="18">
         <v>259</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="19">
         <v>268</v>
       </c>
     </row>
@@ -8473,10 +8541,10 @@
       <c r="B40" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="18">
         <v>275</v>
       </c>
-      <c r="D40" s="23">
+      <c r="D40" s="19">
         <v>284</v>
       </c>
     </row>
@@ -8487,10 +8555,10 @@
       <c r="B41" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="18">
         <v>291</v>
       </c>
-      <c r="D41" s="23">
+      <c r="D41" s="19">
         <v>300</v>
       </c>
     </row>
@@ -8501,10 +8569,10 @@
       <c r="B42" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="18">
         <v>307</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="19">
         <v>316</v>
       </c>
     </row>
@@ -8515,10 +8583,10 @@
       <c r="B43" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="18">
         <v>196</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="18">
         <v>207</v>
       </c>
     </row>
@@ -8529,10 +8597,10 @@
       <c r="B44" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="18">
         <v>212</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="18">
         <v>223</v>
       </c>
     </row>
@@ -8543,10 +8611,10 @@
       <c r="B45" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="18">
         <v>228</v>
       </c>
-      <c r="D45" s="23">
+      <c r="D45" s="19">
         <v>239</v>
       </c>
     </row>
@@ -8557,10 +8625,10 @@
       <c r="B46" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="18">
         <v>244</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="18">
         <v>255</v>
       </c>
     </row>
@@ -8571,10 +8639,10 @@
       <c r="B47" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="18">
         <v>260</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="19">
         <v>271</v>
       </c>
     </row>
@@ -8585,10 +8653,10 @@
       <c r="B48" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="18">
         <v>276</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="19">
         <v>287</v>
       </c>
     </row>
@@ -8599,10 +8667,10 @@
       <c r="B49" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="18">
         <v>292</v>
       </c>
-      <c r="D49" s="23">
+      <c r="D49" s="19">
         <v>303</v>
       </c>
     </row>
@@ -8613,10 +8681,10 @@
       <c r="B50" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="18">
         <v>308</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="19">
         <v>319</v>
       </c>
     </row>

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento Tabula\GATEWAY\A1#111DEDALUS0000\DEDALUS\TABULA\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BEA06E-1EF1-44F7-9FB3-31A8AFDC6022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E13FA-0633-43E2-B194-2F2360C6222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$T$56</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="334">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1045,15 +1045,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-05-10T09:49:00Z</t>
-  </si>
-  <si>
-    <t>b911995c1cd9cbff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ec4b97f4fc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT2</t>
   </si>
   <si>
@@ -1062,15 +1053,6 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-05-10T09:51:00Z</t>
-  </si>
-  <si>
-    <t>6ee3728da746ec45</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b538593e0f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT3</t>
   </si>
   <si>
@@ -1079,27 +1061,12 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-05-10T09:50:00Z</t>
-  </si>
-  <si>
-    <t>9c565a5a969b9895</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.16027e098c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT4</t>
   </si>
   <si>
     <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>2e09ba64aec5c460</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.baeea85461^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
@@ -1144,12 +1111,6 @@
       <t xml:space="preserve">
 Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.</t>
     </r>
-  </si>
-  <si>
-    <t>2023-05-10T10:02:00Z</t>
-  </si>
-  <si>
-    <t>0d7a1efe94c2a43f</t>
   </si>
   <si>
     <t>Viene segnalato all'utente l'errore, chiedendo conferma se proseguire con l'invio del documento o annullare l'operazione per correggere il problema. La gestione dell'errore è a carico del sistema di pubblicazione, ovvero alla piattaforma ESB in uso. Trattandosi di errore non dipendente dall'operatore, la sua correzione sarà a carico del gestore del sistema pubblicante (fornitore e/o CED ospedaliero)</t>
@@ -1200,12 +1161,6 @@
     </r>
   </si>
   <si>
-    <t>2023-05-10T10:03:00Z</t>
-  </si>
-  <si>
-    <t>4368232bd9c78aec</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_LDO_TIMEOUT</t>
   </si>
   <si>
@@ -1220,15 +1175,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:52:00Z</t>
-  </si>
-  <si>
-    <t>075165e64712020f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.974012f2b7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
   </si>
   <si>
@@ -1237,15 +1183,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:53:00Z</t>
-  </si>
-  <si>
-    <t>22505ae74f5ce44c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a9eee4e457^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT7_KO</t>
   </si>
   <si>
@@ -1254,15 +1191,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:54:00Z</t>
-  </si>
-  <si>
-    <t>7416c77412bad0d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.14ebcba667^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
   </si>
   <si>
@@ -1271,12 +1199,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>88e3d84934624ec7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.12849206c6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
   </si>
   <si>
@@ -1285,15 +1207,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:55:00Z</t>
-  </si>
-  <si>
-    <t>7fe47b172aca6f1a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7122cc9cb2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
   </si>
   <si>
@@ -1302,15 +1215,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:56:00Z</t>
-  </si>
-  <si>
-    <t>28461601c64e058d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ed6a8056c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
   </si>
   <si>
@@ -1319,12 +1223,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>5392d2dd72262486</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.17e218e632^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
   </si>
   <si>
@@ -1333,15 +1231,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:57:00Z</t>
-  </si>
-  <si>
-    <t>6029de4c16e584b5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.9e77fdca76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
   </si>
   <si>
@@ -1350,12 +1239,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>653a0030216503e0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c3b9be6c32^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
   </si>
   <si>
@@ -1364,15 +1247,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:58:00Z</t>
-  </si>
-  <si>
-    <t>c72bd42a64530c89</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e6ef19ffef^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
   </si>
   <si>
@@ -1381,12 +1255,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>df26cf3b90fd94d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.3d0794c45d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
   </si>
   <si>
@@ -1395,19 +1263,168 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2023-05-10T09:59:00Z</t>
-  </si>
-  <si>
-    <t>45157d443ba1df9c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.eeec662a2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>"Campo token JWT non valido"</t>
   </si>
   <si>
     <t>"ValidationError" + trace dell'errore restituito dal validatore con gli estremi del dato mancante/errato</t>
+  </si>
+  <si>
+    <t>31561f36a2778b34</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:27:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.fdd5368eff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d23388759fdd4890</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:28:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a189acd909^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>19de39dbea056c38</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.5b9c480ffd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:31:00Z</t>
+  </si>
+  <si>
+    <t>d8320cb61907172f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4d9cfd0e93^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>4451593a6b66e30e</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:33:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ee86482905^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>0a100b4b89342e1b</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:34:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ad7329c342^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>6cd50f71c750714d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a1dc68d948^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:35:00Z</t>
+  </si>
+  <si>
+    <t>fb2dca08a61e3403</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:36:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.21612bea8a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>53d56b11dac7c4eb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.65ea5c66e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d5a10c99b7a0443f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.2149734c58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:37:00Z</t>
+  </si>
+  <si>
+    <t>1ec618f614b7981b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.faf99146f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:38:00Z</t>
+  </si>
+  <si>
+    <t>3253a04acd054e42</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0ed6d01cf2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>82a7e4004dd298c3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.2b28f602a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:39:00Z</t>
+  </si>
+  <si>
+    <t>0a053f74aa8947d3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f5f7c58573^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d20503ddc0fac727</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a64e85843e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:40:00Z</t>
+  </si>
+  <si>
+    <t>e265d85cf26425cb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.202dbb2073^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>d81ec1e2c10afa59</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:42:00Z</t>
+  </si>
+  <si>
+    <t>3a077be256da0745</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:43:00Z</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>83b8abad0ad80be0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.80e492f947^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-23T19:54:00Z</t>
   </si>
 </sst>
 </file>
@@ -1752,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1807,46 +1824,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1944,9 +1921,50 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4409,11 +4427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4438,6 +4456,7 @@
     <col min="18" max="18" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="14.42578125" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -4459,14 +4478,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="60"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4484,14 +4503,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="68"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4509,12 +4528,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="34" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4533,12 +4552,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4557,8 +4576,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4613,2379 +4632,2477 @@
       <c r="S8" s="2"/>
       <c r="T8" s="15"/>
     </row>
-    <row r="9" spans="1:20" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:20" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="36" t="s">
+      <c r="O9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="36" t="s">
+      <c r="Q9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
+    <row r="10" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
         <v>32</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="27">
         <v>45252</v>
       </c>
-      <c r="G10" s="41" t="s">
+      <c r="G10" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="41" t="s">
+      <c r="H10" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42" t="s">
+      <c r="K10" s="28"/>
+      <c r="L10" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="42" t="s">
+      <c r="O10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R10" s="44"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="42" t="s">
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+    <row r="11" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
         <v>40</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="27">
         <v>45252</v>
       </c>
-      <c r="G11" s="41" t="s">
+      <c r="G11" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42" t="s">
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="N11" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P11" s="43" t="s">
+      <c r="P11" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R11" s="44"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="42" t="s">
+      <c r="R11" s="30"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="38" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
         <v>48</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="N12" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="43" t="s">
+      <c r="P12" s="29" t="s">
         <v>239</v>
       </c>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R12" s="44"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="42" t="s">
+      <c r="R12" s="30"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+    <row r="13" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+      <c r="A13" s="25">
         <v>147</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="42" t="s">
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+    <row r="14" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+      <c r="A14" s="25">
         <v>148</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42" t="s">
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="42" t="s">
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
+    <row r="15" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
         <v>149</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42" t="s">
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="42" t="s">
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
+    <row r="16" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>150</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="46" t="s">
+      <c r="E16" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42" t="s">
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="42" t="s">
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
+    <row r="17" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
         <v>151</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="27">
         <v>45252</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="H17" s="47" t="s">
+      <c r="H17" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="I17" s="47" t="s">
+      <c r="I17" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42" t="s">
+      <c r="K17" s="28"/>
+      <c r="L17" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M17" s="42" t="s">
+      <c r="M17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="O17" s="42" t="s">
+      <c r="O17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="43" t="s">
+      <c r="P17" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q17" s="42" t="s">
+      <c r="Q17" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="42" t="s">
+      <c r="R17" s="30"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+    <row r="18" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
         <v>152</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="27">
         <v>45252</v>
       </c>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="33" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="47" t="s">
+      <c r="I18" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="J18" s="42" t="s">
+      <c r="J18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42" t="s">
+      <c r="K18" s="28"/>
+      <c r="L18" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="M18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N18" s="42" t="s">
+      <c r="N18" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="O18" s="42" t="s">
+      <c r="O18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q18" s="42" t="s">
+      <c r="Q18" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="42" t="s">
+      <c r="R18" s="30"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+    <row r="19" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
         <v>153</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="27">
         <v>45252</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="J19" s="42" t="s">
+      <c r="J19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42" t="s">
+      <c r="K19" s="28"/>
+      <c r="L19" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="42" t="s">
+      <c r="M19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="42" t="s">
+      <c r="N19" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="O19" s="42" t="s">
+      <c r="O19" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P19" s="43" t="s">
+      <c r="P19" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q19" s="42" t="s">
+      <c r="Q19" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R19" s="44"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="42" t="s">
+      <c r="R19" s="30"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+    <row r="20" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
         <v>154</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="27">
         <v>45252</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="47" t="s">
+      <c r="H20" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="48" t="s">
+      <c r="I20" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="J20" s="42" t="s">
+      <c r="J20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42" t="s">
+      <c r="K20" s="28"/>
+      <c r="L20" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M20" s="42" t="s">
+      <c r="M20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="28" t="s">
         <v>173</v>
       </c>
-      <c r="O20" s="42" t="s">
+      <c r="O20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="43" t="s">
+      <c r="P20" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q20" s="42" t="s">
+      <c r="Q20" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R20" s="44"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="42" t="s">
+      <c r="R20" s="30"/>
+      <c r="S20" s="31"/>
+      <c r="T20" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
+    <row r="21" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>155</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="27">
         <v>45252</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="H21" s="47" t="s">
+      <c r="H21" s="33" t="s">
         <v>204</v>
       </c>
-      <c r="I21" s="47" t="s">
+      <c r="I21" s="33" t="s">
         <v>205</v>
       </c>
-      <c r="J21" s="42" t="s">
+      <c r="J21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42" t="s">
+      <c r="K21" s="28"/>
+      <c r="L21" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="M21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N21" s="42" t="s">
+      <c r="N21" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O21" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P21" s="43" t="s">
+      <c r="P21" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q21" s="42" t="s">
+      <c r="Q21" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R21" s="44"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="42" t="s">
+      <c r="R21" s="30"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+    <row r="22" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
         <v>156</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="27">
         <v>45252</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="47" t="s">
+      <c r="H22" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="47" t="s">
+      <c r="I22" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="J22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42" t="s">
+      <c r="K22" s="28"/>
+      <c r="L22" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M22" s="42" t="s">
+      <c r="M22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="O22" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q22" s="42" t="s">
+      <c r="Q22" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R22" s="44"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="42" t="s">
+      <c r="R22" s="30"/>
+      <c r="S22" s="31"/>
+      <c r="T22" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
+    <row r="23" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
         <v>157</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="27">
         <v>45252</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="H23" s="47" t="s">
+      <c r="H23" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="I23" s="47" t="s">
+      <c r="I23" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="J23" s="42" t="s">
+      <c r="J23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42" t="s">
+      <c r="K23" s="28"/>
+      <c r="L23" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="M23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N23" s="42" t="s">
+      <c r="N23" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="43" t="s">
+      <c r="P23" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q23" s="42" t="s">
+      <c r="Q23" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R23" s="44"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="42" t="s">
+      <c r="R23" s="30"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+    <row r="24" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
         <v>158</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="27">
         <v>45252</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="I24" s="47" t="s">
+      <c r="I24" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="J24" s="42" t="s">
+      <c r="J24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42" t="s">
+      <c r="K24" s="28"/>
+      <c r="L24" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="42" t="s">
+      <c r="M24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="42" t="s">
+      <c r="N24" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="O24" s="42" t="s">
+      <c r="O24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="43" t="s">
+      <c r="P24" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q24" s="42" t="s">
+      <c r="Q24" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R24" s="44"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="42" t="s">
+      <c r="R24" s="30"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
+    <row r="25" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
         <v>159</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="27">
         <v>45252</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="H25" s="47" t="s">
+      <c r="H25" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="I25" s="48" t="s">
+      <c r="I25" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42" t="s">
+      <c r="K25" s="28"/>
+      <c r="L25" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="42" t="s">
+      <c r="M25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="42" t="s">
+      <c r="N25" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P25" s="43" t="s">
+      <c r="P25" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q25" s="42" t="s">
+      <c r="Q25" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="42" t="s">
+      <c r="R25" s="30"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
+    <row r="26" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
         <v>160</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="27">
         <v>45252</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="47" t="s">
+      <c r="H26" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="I26" s="47" t="s">
+      <c r="I26" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42" t="s">
+      <c r="K26" s="28"/>
+      <c r="L26" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="M26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N26" s="42" t="s">
+      <c r="N26" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="O26" s="42" t="s">
+      <c r="O26" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="43" t="s">
+      <c r="P26" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q26" s="42" t="s">
+      <c r="Q26" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="42" t="s">
+      <c r="R26" s="30"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
+    <row r="27" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
         <v>161</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="27">
         <v>45252</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="47" t="s">
+      <c r="H27" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I27" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42" t="s">
+      <c r="K27" s="28"/>
+      <c r="L27" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M27" s="42" t="s">
+      <c r="M27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N27" s="42" t="s">
+      <c r="N27" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="P27" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q27" s="42" t="s">
+      <c r="Q27" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="42" t="s">
+      <c r="R27" s="30"/>
+      <c r="S27" s="31"/>
+      <c r="T27" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
+    <row r="28" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
         <v>162</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="27">
         <v>45252</v>
       </c>
-      <c r="G28" s="47" t="s">
+      <c r="G28" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42" t="s">
+      <c r="K28" s="28"/>
+      <c r="L28" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="M28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N28" s="42" t="s">
+      <c r="N28" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P28" s="43" t="s">
+      <c r="P28" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q28" s="42" t="s">
+      <c r="Q28" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R28" s="44"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="42" t="s">
+      <c r="R28" s="30"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
+    <row r="29" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
         <v>163</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="27">
         <v>45252</v>
       </c>
-      <c r="G29" s="47" t="s">
+      <c r="G29" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="H29" s="47" t="s">
+      <c r="H29" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I29" s="47" t="s">
+      <c r="I29" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42" t="s">
+      <c r="K29" s="28"/>
+      <c r="L29" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M29" s="42" t="s">
+      <c r="M29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N29" s="42" t="s">
+      <c r="N29" s="28" t="s">
         <v>182</v>
       </c>
-      <c r="O29" s="49" t="s">
+      <c r="O29" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="43" t="s">
+      <c r="P29" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q29" s="42" t="s">
+      <c r="Q29" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R29" s="44"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="42" t="s">
+      <c r="R29" s="30"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
+    <row r="30" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
         <v>164</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="42" t="s">
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+    <row r="31" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
         <v>165</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="46" t="s">
+      <c r="E31" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="K31" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="45"/>
-      <c r="T31" s="42" t="s">
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
+    <row r="32" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
         <v>166</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="42" t="s">
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+    <row r="33" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
         <v>167</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="42" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="K33" s="42" t="s">
+      <c r="K33" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="42" t="s">
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+    <row r="34" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A34" s="25">
         <v>168</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="39" t="s">
+      <c r="C34" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="E34" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="27">
         <v>45252</v>
       </c>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="H34" s="47" t="s">
+      <c r="H34" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="I34" s="47" t="s">
+      <c r="I34" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42" t="s">
+      <c r="K34" s="28"/>
+      <c r="L34" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M34" s="42" t="s">
+      <c r="M34" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N34" s="42" t="s">
+      <c r="N34" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="O34" s="42" t="s">
+      <c r="O34" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P34" s="43" t="s">
+      <c r="P34" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q34" s="42" t="s">
+      <c r="Q34" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R34" s="44"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="42" t="s">
+      <c r="R34" s="30"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+    <row r="35" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="25">
         <v>169</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="27">
         <v>45252</v>
       </c>
-      <c r="G35" s="47" t="s">
+      <c r="G35" s="33" t="s">
         <v>232</v>
       </c>
-      <c r="H35" s="47" t="s">
+      <c r="H35" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="I35" s="47" t="s">
+      <c r="I35" s="33" t="s">
         <v>234</v>
       </c>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42" t="s">
+      <c r="K35" s="28"/>
+      <c r="L35" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="N35" s="42" t="s">
+      <c r="N35" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="O35" s="42" t="s">
+      <c r="O35" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="P35" s="43" t="s">
+      <c r="P35" s="29" t="s">
         <v>240</v>
       </c>
-      <c r="Q35" s="42" t="s">
+      <c r="Q35" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R35" s="44"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="42" t="s">
+      <c r="R35" s="30"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="38" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+    <row r="36" spans="1:20" ht="195" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
         <v>374</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="50" t="s">
+      <c r="C36" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="38">
         <v>45252</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="G36" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="53" t="s">
+      <c r="I36" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="42" t="s">
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="R36" s="55"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="54" t="s">
+      <c r="R36" s="41"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A37" s="57">
+    <row r="37" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="43">
         <v>6</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="F37" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G37" s="60" t="s">
+      <c r="F37" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="I37" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="43">
+        <v>7</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="H37" s="61" t="s">
+      <c r="E38" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="I37" s="61" t="s">
+      <c r="F38" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="H38" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="I38" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="43">
+        <v>8</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="E39" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="J39" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="64"/>
-      <c r="Q37" s="42" t="s">
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="T37" s="65" t="s">
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A38" s="57">
-        <v>7</v>
-      </c>
-      <c r="B38" s="57" t="s">
+    <row r="40" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A40" s="43">
+        <v>9</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C40" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="E38" s="58" t="s">
+      <c r="D40" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="F38" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G38" s="60" t="s">
+      <c r="E40" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="H38" s="61" t="s">
+      <c r="F40" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G40" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="I40" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="43">
+        <v>29</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="E41" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="J38" s="62" t="s">
+      <c r="F41" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G41" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="H41" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="I41" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="66"/>
-      <c r="Q38" s="42" t="s">
+      <c r="K41" s="24"/>
+      <c r="L41" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M41" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="O41" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q41" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="T38" s="65" t="s">
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="43">
+        <v>37</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="F42" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="H42" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="I42" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K42" s="24"/>
+      <c r="L42" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M42" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N42" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="O42" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q42" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R42" s="24"/>
+      <c r="S42" s="24"/>
+      <c r="T42" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="43">
+        <v>45</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="24"/>
+      <c r="L43" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M43" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N43" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="O43" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q43" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A44" s="43">
+        <v>63</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>257</v>
+      </c>
+      <c r="F44" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G44" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="H44" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="I44" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="24"/>
+      <c r="L44" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M44" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N44" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O44" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q44" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="43">
+        <v>64</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="F45" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="H45" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="I45" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="24"/>
+      <c r="L45" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M45" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O45" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q45" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="43">
+        <v>65</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G46" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="H46" s="47" t="s">
+        <v>299</v>
+      </c>
+      <c r="I46" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="24"/>
+      <c r="L46" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M46" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N46" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O46" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A47" s="43">
+        <v>66</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="54" t="s">
+        <v>262</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="H47" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="I47" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="J47" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K47" s="24"/>
+      <c r="L47" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M47" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N47" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O47" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q47" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="43">
+        <v>67</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>303</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K48" s="24"/>
+      <c r="L48" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M48" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N48" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O48" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q48" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A49" s="43">
+        <v>68</v>
+      </c>
+      <c r="B49" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="F49" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G49" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="H49" s="47" t="s">
+        <v>307</v>
+      </c>
+      <c r="I49" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="J49" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="24"/>
+      <c r="L49" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M49" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N49" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O49" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P49" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q49" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="43">
+        <v>69</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="F50" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="I50" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="24"/>
+      <c r="L50" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M50" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N50" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O50" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P50" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q50" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A51" s="43">
+        <v>70</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="F51" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G51" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="H51" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="I51" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="24"/>
+      <c r="L51" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M51" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N51" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O51" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P51" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q51" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="43">
+        <v>71</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="F52" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G52" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="H52" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="I52" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="J52" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="24"/>
+      <c r="L52" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M52" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O52" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P52" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q52" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="43">
+        <v>72</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>275</v>
+      </c>
+      <c r="F53" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="H53" s="47" t="s">
+        <v>318</v>
+      </c>
+      <c r="I53" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="J53" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K53" s="24"/>
+      <c r="L53" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M53" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N53" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O53" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P53" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q53" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A54" s="43">
+        <v>73</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="F54" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H54" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="I54" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="J54" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" s="24"/>
+      <c r="L54" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M54" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N54" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O54" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P54" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>74</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="F55" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="H55" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="I55" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="J55" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="24"/>
+      <c r="L55" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="M55" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="N55" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="O55" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P55" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q55" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" s="43">
+        <v>369</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="F56" s="45">
+        <v>45253</v>
+      </c>
+      <c r="G56" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="H56" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="I56" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="J56" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="K56" s="48"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="48"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="48"/>
+      <c r="Q56" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="R56" s="49"/>
+      <c r="S56" s="50"/>
+      <c r="T56" s="48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="57">
-        <v>8</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="57" t="s">
-        <v>251</v>
-      </c>
-      <c r="E39" s="58" t="s">
-        <v>252</v>
-      </c>
-      <c r="F39" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G39" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="I39" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="J39" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="66"/>
-      <c r="Q39" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T39" s="65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="38" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A40" s="57">
-        <v>9</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>256</v>
-      </c>
-      <c r="E40" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="I40" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="J40" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="66"/>
-      <c r="Q40" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T40" s="65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" s="38" customFormat="1" ht="135" x14ac:dyDescent="0.25">
-      <c r="A41" s="57">
-        <v>29</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D41" s="57" t="s">
-        <v>260</v>
-      </c>
-      <c r="E41" s="58" t="s">
-        <v>261</v>
-      </c>
-      <c r="F41" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G41" s="60" t="s">
-        <v>262</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="I41" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="J41" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M41" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N41" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="O41" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P41" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q41" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T41" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A42" s="57">
-        <v>37</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D42" s="57" t="s">
-        <v>265</v>
-      </c>
-      <c r="E42" s="58" t="s">
-        <v>266</v>
-      </c>
-      <c r="F42" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G42" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>268</v>
-      </c>
-      <c r="I42" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="J42" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L42" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M42" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="O42" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P42" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q42" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T42" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="38" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="57">
-        <v>45</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>269</v>
-      </c>
-      <c r="E43" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G43" s="60"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L43" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M43" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N43" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="O43" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P43" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q43" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T43" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A44" s="57">
-        <v>63</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="E44" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="F44" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G44" s="60" t="s">
-        <v>273</v>
-      </c>
-      <c r="H44" s="67" t="s">
-        <v>274</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="J44" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L44" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M44" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N44" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O44" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P44" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q44" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T44" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A45" s="57">
-        <v>64</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="F45" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G45" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="J45" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L45" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M45" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N45" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O45" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P45" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q45" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T45" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A46" s="57">
-        <v>65</v>
-      </c>
-      <c r="B46" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="E46" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="F46" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="I46" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="J46" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L46" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M46" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N46" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O46" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q46" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T46" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A47" s="57">
-        <v>66</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="68" t="s">
-        <v>286</v>
-      </c>
-      <c r="E47" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G47" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="J47" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="L47" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M47" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N47" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O47" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P47" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q47" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T47" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A48" s="57">
-        <v>67</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="E48" s="58" t="s">
-        <v>291</v>
-      </c>
-      <c r="F48" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G48" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="H48" s="69" t="s">
-        <v>293</v>
-      </c>
-      <c r="I48" s="59" t="s">
-        <v>294</v>
-      </c>
-      <c r="J48" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L48" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M48" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N48" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O48" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P48" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q48" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T48" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A49" s="57">
-        <v>68</v>
-      </c>
-      <c r="B49" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="57" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="58" t="s">
-        <v>296</v>
-      </c>
-      <c r="F49" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G49" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="H49" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="I49" s="59" t="s">
-        <v>299</v>
-      </c>
-      <c r="J49" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L49" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M49" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N49" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O49" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P49" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q49" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T49" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A50" s="57">
-        <v>69</v>
-      </c>
-      <c r="B50" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C50" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="57" t="s">
-        <v>300</v>
-      </c>
-      <c r="E50" s="58" t="s">
-        <v>301</v>
-      </c>
-      <c r="F50" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G50" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="H50" s="59" t="s">
-        <v>302</v>
-      </c>
-      <c r="I50" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="J50" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L50" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M50" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N50" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O50" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P50" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q50" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T50" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A51" s="57">
-        <v>70</v>
-      </c>
-      <c r="B51" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="E51" s="58" t="s">
-        <v>305</v>
-      </c>
-      <c r="F51" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G51" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="H51" s="59" t="s">
-        <v>307</v>
-      </c>
-      <c r="I51" s="59" t="s">
-        <v>308</v>
-      </c>
-      <c r="J51" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L51" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M51" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N51" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O51" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P51" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q51" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T51" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A52" s="57">
-        <v>71</v>
-      </c>
-      <c r="B52" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" s="57" t="s">
-        <v>309</v>
-      </c>
-      <c r="E52" s="58" t="s">
-        <v>310</v>
-      </c>
-      <c r="F52" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G52" s="59" t="s">
-        <v>306</v>
-      </c>
-      <c r="H52" s="59" t="s">
-        <v>311</v>
-      </c>
-      <c r="I52" s="59" t="s">
-        <v>312</v>
-      </c>
-      <c r="J52" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L52" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M52" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N52" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O52" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P52" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q52" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T52" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A53" s="57">
-        <v>72</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>313</v>
-      </c>
-      <c r="E53" s="58" t="s">
-        <v>314</v>
-      </c>
-      <c r="F53" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="H53" s="59" t="s">
-        <v>316</v>
-      </c>
-      <c r="I53" s="59" t="s">
-        <v>317</v>
-      </c>
-      <c r="J53" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L53" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M53" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N53" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O53" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P53" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q53" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T53" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A54" s="57">
-        <v>73</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D54" s="57" t="s">
-        <v>318</v>
-      </c>
-      <c r="E54" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="F54" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G54" s="59" t="s">
-        <v>315</v>
-      </c>
-      <c r="H54" s="59" t="s">
-        <v>320</v>
-      </c>
-      <c r="I54" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="J54" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L54" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M54" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N54" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O54" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P54" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q54" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T54" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A55" s="57">
-        <v>74</v>
-      </c>
-      <c r="B55" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="E55" s="58" t="s">
-        <v>323</v>
-      </c>
-      <c r="F55" s="59">
-        <v>45056</v>
-      </c>
-      <c r="G55" s="59" t="s">
-        <v>324</v>
-      </c>
-      <c r="H55" s="59" t="s">
-        <v>325</v>
-      </c>
-      <c r="I55" s="59" t="s">
-        <v>326</v>
-      </c>
-      <c r="J55" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="L55" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="M55" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="N55" s="63" t="s">
-        <v>328</v>
-      </c>
-      <c r="O55" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="P55" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q55" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="T55" s="65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T56" s="13"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="T57" s="13"/>
@@ -7954,7 +8071,7 @@
       <c r="T378" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T55" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A9:T56" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>

--- a/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111DEDALUS0000/DEDALUS/TABULA/1.0.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Accreditamento Tabula\GATEWAY\A1#111DEDALUS0000\DEDALUS\TABULA\1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E13FA-0633-43E2-B194-2F2360C6222C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3124943-8B2D-41E7-BF39-45DB261589A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="333">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1269,147 +1269,6 @@
     <t>"ValidationError" + trace dell'errore restituito dal validatore con gli estremi del dato mancante/errato</t>
   </si>
   <si>
-    <t>31561f36a2778b34</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:27:00Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.fdd5368eff^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d23388759fdd4890</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:28:00Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a189acd909^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>19de39dbea056c38</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.5b9c480ffd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:31:00Z</t>
-  </si>
-  <si>
-    <t>d8320cb61907172f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.4d9cfd0e93^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>4451593a6b66e30e</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:33:00Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ee86482905^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0a100b4b89342e1b</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:34:00Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.ad7329c342^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6cd50f71c750714d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a1dc68d948^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:35:00Z</t>
-  </si>
-  <si>
-    <t>fb2dca08a61e3403</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:36:00Z</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.21612bea8a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>53d56b11dac7c4eb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.65ea5c66e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d5a10c99b7a0443f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.2149734c58^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:37:00Z</t>
-  </si>
-  <si>
-    <t>1ec618f614b7981b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.faf99146f9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:38:00Z</t>
-  </si>
-  <si>
-    <t>3253a04acd054e42</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0ed6d01cf2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>82a7e4004dd298c3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.2b28f602a8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:39:00Z</t>
-  </si>
-  <si>
-    <t>0a053f74aa8947d3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f5f7c58573^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d20503ddc0fac727</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a64e85843e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:40:00Z</t>
-  </si>
-  <si>
-    <t>e265d85cf26425cb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.202dbb2073^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>d81ec1e2c10afa59</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:42:00Z</t>
-  </si>
-  <si>
-    <t>3a077be256da0745</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:43:00Z</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT0</t>
   </si>
   <si>
@@ -1418,13 +1277,151 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>83b8abad0ad80be0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.80e492f947^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-23T19:54:00Z</t>
+    <t>e1fded846605a755</t>
+  </si>
+  <si>
+    <t>2023-11-27T07:56:00Z</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.7c8699e8db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>301ed8bed57cd070</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.e0e014e29b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T07:57:00Z</t>
+  </si>
+  <si>
+    <t>2023-11-27T07:58:00Z</t>
+  </si>
+  <si>
+    <t>08fd0e5781e6f228</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.884112277a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>47afb667f660363d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.def277fdd4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>5c5a6356d3c4dec2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b28be236f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T07:59:00Z</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:01:00Z</t>
+  </si>
+  <si>
+    <t>82ec7403b36162e9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.073a805d0d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c4e07f697a6491f2</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.147ec8185a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:02:00Z</t>
+  </si>
+  <si>
+    <t>239156f12ef523b9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c7910275ba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>29f1ed9c29426792</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.985479e0cb^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:03:00Z</t>
+  </si>
+  <si>
+    <t>9dac3cfa9872f22d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.d48273d52f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:04:00Z</t>
+  </si>
+  <si>
+    <t>0f1f6f201b06929b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.a249f659db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:05:00Z</t>
+  </si>
+  <si>
+    <t>6531fab30cdee09a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.0390c008a1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>c519e5c60df16856</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.f1c5fb8615^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:06:00Z</t>
+  </si>
+  <si>
+    <t>614faff399bf600a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.13cb89238b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2d348f1a149ce18d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.5a9b727578^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:07:00Z</t>
+  </si>
+  <si>
+    <t>d0cbaef56666ba43</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.b9fe4356b5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8a1571ccd8666758</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.160.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.c78ec7d7e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:11:00Z</t>
+  </si>
+  <si>
+    <t>8412d54b7e474291</t>
+  </si>
+  <si>
+    <t>2023-11-27T08:12:00Z</t>
+  </si>
+  <si>
+    <t>4a0cd4d2a2bd992d</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1921,6 +1918,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1961,10 +1961,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -4427,7 +4423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -4456,7 +4452,6 @@
     <col min="18" max="18" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="14.42578125" style="70"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -4478,14 +4473,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="60" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="60"/>
+      <c r="D2" s="61"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4503,14 +4498,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4528,12 +4523,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="67" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4552,12 +4547,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="67" t="s">
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="21"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -4576,8 +4571,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -6059,16 +6054,16 @@
         <v>242</v>
       </c>
       <c r="F37" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H37" s="47" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I37" s="47" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="J37" s="48" t="s">
         <v>55</v>
@@ -6105,16 +6100,16 @@
         <v>244</v>
       </c>
       <c r="F38" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G38" s="46" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H38" s="47" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I38" s="47" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J38" s="48" t="s">
         <v>55</v>
@@ -6151,16 +6146,16 @@
         <v>246</v>
       </c>
       <c r="F39" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G39" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H39" s="45" t="s">
-        <v>288</v>
+      <c r="H39" s="46" t="s">
+        <v>291</v>
       </c>
       <c r="I39" s="45" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J39" s="48" t="s">
         <v>55</v>
@@ -6197,16 +6192,16 @@
         <v>248</v>
       </c>
       <c r="F40" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G40" s="46" t="s">
         <v>290</v>
       </c>
       <c r="H40" s="47" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I40" s="47" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J40" s="48" t="s">
         <v>55</v>
@@ -6243,13 +6238,13 @@
         <v>250</v>
       </c>
       <c r="F41" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G41" s="46" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H41" s="47" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I41" s="47" t="s">
         <v>111</v>
@@ -6299,13 +6294,13 @@
         <v>253</v>
       </c>
       <c r="F42" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G42" s="46" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H42" s="47" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="I42" s="47" t="s">
         <v>111</v>
@@ -6403,16 +6398,16 @@
         <v>257</v>
       </c>
       <c r="F44" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G44" s="46" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H44" s="53" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I44" s="47" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="J44" s="48" t="s">
         <v>55</v>
@@ -6459,16 +6454,16 @@
         <v>259</v>
       </c>
       <c r="F45" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H45" s="47" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="I45" s="47" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J45" s="48" t="s">
         <v>55</v>
@@ -6515,16 +6510,16 @@
         <v>261</v>
       </c>
       <c r="F46" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G46" s="46" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H46" s="47" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="I46" s="47" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="J46" s="48" t="s">
         <v>55</v>
@@ -6571,16 +6566,16 @@
         <v>263</v>
       </c>
       <c r="F47" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="H47" s="47" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I47" s="47" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="J47" s="29" t="s">
         <v>55</v>
@@ -6627,16 +6622,16 @@
         <v>265</v>
       </c>
       <c r="F48" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G48" s="46" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H48" s="53" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="I48" s="47" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J48" s="48" t="s">
         <v>55</v>
@@ -6683,16 +6678,16 @@
         <v>267</v>
       </c>
       <c r="F49" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="H49" s="47" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="I49" s="47" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="J49" s="48" t="s">
         <v>55</v>
@@ -6739,16 +6734,16 @@
         <v>269</v>
       </c>
       <c r="F50" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H50" s="47" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="I50" s="47" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="J50" s="48" t="s">
         <v>55</v>
@@ -6795,16 +6790,16 @@
         <v>271</v>
       </c>
       <c r="F51" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G51" s="46" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H51" s="47" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="I51" s="47" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J51" s="48" t="s">
         <v>55</v>
@@ -6851,16 +6846,16 @@
         <v>273</v>
       </c>
       <c r="F52" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G52" s="46" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H52" s="47" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="I52" s="47" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="J52" s="48" t="s">
         <v>55</v>
@@ -6907,16 +6902,16 @@
         <v>275</v>
       </c>
       <c r="F53" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G53" s="46" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H53" s="47" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I53" s="47" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J53" s="48" t="s">
         <v>55</v>
@@ -6963,16 +6958,16 @@
         <v>277</v>
       </c>
       <c r="F54" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G54" s="46" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H54" s="47" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I54" s="47" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J54" s="48" t="s">
         <v>55</v>
@@ -7019,16 +7014,16 @@
         <v>279</v>
       </c>
       <c r="F55" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H55" s="47" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="I55" s="47" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="J55" s="48" t="s">
         <v>55</v>
@@ -7069,22 +7064,22 @@
         <v>47</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>329</v>
+        <v>282</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="F56" s="45">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="G56" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="H56" s="69" t="s">
-        <v>331</v>
-      </c>
-      <c r="I56" s="69" t="s">
-        <v>332</v>
+        <v>297</v>
+      </c>
+      <c r="H56" s="55" t="s">
+        <v>295</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>296</v>
       </c>
       <c r="J56" s="48" t="s">
         <v>55</v>
